--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64534.9204465986</v>
+        <v>-67197.34410158372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9497147.412392406</v>
+        <v>9497147.412392415</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H9" t="n">
-        <v>15.30273751513505</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="I9" t="n">
         <v>15.30273751513505</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>10.75721046822443</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="K10" t="n">
         <v>15.30273751513505</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9410321169296</v>
+        <v>81.93915768796489</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8054867063952</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.132331899426958</v>
+        <v>109.6277078246378</v>
       </c>
       <c r="T11" t="n">
-        <v>204.0024841834868</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H12" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I12" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0344684738949</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8320120974078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.86931375741781</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.32154742214206</v>
+        <v>89.32154742214205</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9199492577997</v>
       </c>
       <c r="T13" t="n">
-        <v>134.830553679773</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2123105809692</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>378.4919228242852</v>
       </c>
       <c r="C14" t="n">
-        <v>361.0309729318121</v>
+        <v>361.0309729318122</v>
       </c>
       <c r="D14" t="n">
-        <v>300.2018888641531</v>
+        <v>350.4411227814876</v>
       </c>
       <c r="E14" t="n">
         <v>377.6884512330664</v>
       </c>
       <c r="F14" t="n">
-        <v>402.634126902516</v>
+        <v>402.6341269025161</v>
       </c>
       <c r="G14" t="n">
-        <v>406.6991132777342</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>290.5635678671998</v>
+        <v>290.5635678671999</v>
       </c>
       <c r="I14" t="n">
-        <v>38.07932336689356</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>105.3857889854424</v>
+        <v>105.3857889854425</v>
       </c>
       <c r="T14" t="n">
-        <v>199.7605653442914</v>
+        <v>199.7605653442915</v>
       </c>
       <c r="U14" t="n">
-        <v>246.7547976367846</v>
+        <v>246.7547976367847</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>323.5103396309395</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>344.9990498782176</v>
       </c>
       <c r="X14" t="n">
-        <v>365.4891818392736</v>
+        <v>365.4891818392737</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.9960198168582</v>
+        <v>108.0258330349926</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H15" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I15" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977583</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.5900613427419</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.0049022594324</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.3735541790169</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>142.1920438073738</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>141.1791291837359</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>161.7925496346995</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.5900932582125</v>
       </c>
       <c r="I16" t="n">
-        <v>29.6915501281805</v>
+        <v>92.3709378504505</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>85.07962858294665</v>
       </c>
       <c r="S16" t="n">
         <v>185.6780304186043</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>215.3440331732222</v>
       </c>
       <c r="U16" t="n">
-        <v>281.9703917417738</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>247.8957244846326</v>
@@ -1828,10 +1828,10 @@
         <v>282.2810794973956</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>221.4677365498418</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.3427345128994</v>
+        <v>93.34112973830896</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.367004276882</v>
+        <v>335.3670042768821</v>
       </c>
       <c r="C17" t="n">
-        <v>317.9060543844089</v>
+        <v>317.9060543844091</v>
       </c>
       <c r="D17" t="n">
-        <v>307.3162042340844</v>
+        <v>307.3162042340845</v>
       </c>
       <c r="E17" t="n">
-        <v>334.5635326856632</v>
+        <v>334.5635326856633</v>
       </c>
       <c r="F17" t="n">
-        <v>359.5092083551128</v>
+        <v>359.5092083551129</v>
       </c>
       <c r="G17" t="n">
-        <v>363.574194730331</v>
+        <v>363.5741947303311</v>
       </c>
       <c r="H17" t="n">
-        <v>247.4386493197966</v>
+        <v>247.4386493197968</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.26087043803929</v>
+        <v>62.2608704380393</v>
       </c>
       <c r="T17" t="n">
-        <v>156.6356467968882</v>
+        <v>156.6356467968883</v>
       </c>
       <c r="U17" t="n">
         <v>203.6298790893815</v>
       </c>
       <c r="V17" t="n">
-        <v>280.3854210835363</v>
+        <v>203.4649806875813</v>
       </c>
       <c r="W17" t="n">
-        <v>301.8741313308144</v>
+        <v>301.8741313308145</v>
       </c>
       <c r="X17" t="n">
-        <v>322.3642632918704</v>
+        <v>322.3642632918705</v>
       </c>
       <c r="Y17" t="n">
-        <v>261.950660873501</v>
+        <v>338.8711012694551</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H18" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I18" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977583</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.4651427953387</v>
+        <v>132.4651427953388</v>
       </c>
       <c r="C19" t="n">
-        <v>119.8799837120292</v>
+        <v>119.8799837120293</v>
       </c>
       <c r="D19" t="n">
         <v>101.2486356316138</v>
       </c>
       <c r="E19" t="n">
-        <v>99.06712525997058</v>
+        <v>99.06712525997065</v>
       </c>
       <c r="F19" t="n">
-        <v>98.05421063633266</v>
+        <v>98.05421063633273</v>
       </c>
       <c r="G19" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H19" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080932</v>
       </c>
       <c r="I19" t="n">
-        <v>49.24601930304731</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95471003554346</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S19" t="n">
         <v>142.5531118712011</v>
       </c>
       <c r="T19" t="n">
-        <v>172.219114625819</v>
+        <v>172.2191146258191</v>
       </c>
       <c r="U19" t="n">
-        <v>238.8454731943706</v>
+        <v>238.8454731943707</v>
       </c>
       <c r="V19" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W19" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X19" t="n">
-        <v>178.3428180024385</v>
+        <v>178.3428180024386</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.2178159654962</v>
+        <v>171.2178159654963</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>335.367004276882</v>
       </c>
       <c r="C20" t="n">
-        <v>240.9856139884546</v>
+        <v>317.906054384409</v>
       </c>
       <c r="D20" t="n">
         <v>307.3162042340844</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.26087043803929</v>
+        <v>62.26087043803926</v>
       </c>
       <c r="T20" t="n">
         <v>156.6356467968883</v>
       </c>
       <c r="U20" t="n">
-        <v>203.6298790893815</v>
+        <v>126.7094386934269</v>
       </c>
       <c r="V20" t="n">
         <v>280.3854210835364</v>
@@ -2175,10 +2175,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H21" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I21" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>97.46517471080929</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24601930304733</v>
+        <v>49.24601930304732</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95471003554351</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S22" t="n">
         <v>142.5531118712011</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.26087043803929</v>
+        <v>62.26087043803926</v>
       </c>
       <c r="T23" t="n">
         <v>156.6356467968883</v>
@@ -2412,10 +2412,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H24" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I24" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>99.06712525997061</v>
       </c>
       <c r="F25" t="n">
-        <v>98.05421063633177</v>
+        <v>98.05421063633268</v>
       </c>
       <c r="G25" t="n">
         <v>118.6676310872963</v>
@@ -2494,7 +2494,7 @@
         <v>97.46517471080929</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24601930304733</v>
+        <v>49.24601930304732</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95471003554351</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S25" t="n">
         <v>142.5531118712011</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26087043803929</v>
+        <v>62.26087043803925</v>
       </c>
       <c r="T26" t="n">
         <v>156.6356467968883</v>
@@ -2649,10 +2649,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H27" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I27" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977583</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>118.6676310872963</v>
       </c>
       <c r="H28" t="n">
-        <v>97.46517471080929</v>
+        <v>97.46517471080928</v>
       </c>
       <c r="I28" t="n">
-        <v>49.24601930304733</v>
+        <v>49.24601930304731</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95471003554351</v>
+        <v>41.95471003554347</v>
       </c>
       <c r="S28" t="n">
         <v>142.5531118712011</v>
@@ -2798,13 +2798,13 @@
         <v>311.5581230732798</v>
       </c>
       <c r="E29" t="n">
-        <v>338.8054515248587</v>
+        <v>338.8054515248586</v>
       </c>
       <c r="F29" t="n">
         <v>363.7511271943083</v>
       </c>
       <c r="G29" t="n">
-        <v>367.8161135695265</v>
+        <v>367.8161135695264</v>
       </c>
       <c r="H29" t="n">
         <v>251.6805681589921</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.50278927723474</v>
+        <v>66.50278927723463</v>
       </c>
       <c r="T29" t="n">
         <v>160.8775656360837</v>
@@ -2849,16 +2849,16 @@
         <v>207.8717979285769</v>
       </c>
       <c r="V29" t="n">
-        <v>284.6273399227318</v>
+        <v>284.6273399227317</v>
       </c>
       <c r="W29" t="n">
-        <v>306.1160501700099</v>
+        <v>306.1160501700098</v>
       </c>
       <c r="X29" t="n">
         <v>326.6061821310659</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.1130201086505</v>
+        <v>343.1130201086504</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H30" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I30" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.7070616345342</v>
+        <v>136.7070616345341</v>
       </c>
       <c r="C31" t="n">
-        <v>124.1219025512247</v>
+        <v>124.1219025512246</v>
       </c>
       <c r="D31" t="n">
         <v>105.4905544708092</v>
@@ -2959,7 +2959,7 @@
         <v>103.309044099166</v>
       </c>
       <c r="F31" t="n">
-        <v>1.165390814037205</v>
+        <v>102.296129475528</v>
       </c>
       <c r="G31" t="n">
         <v>122.9095499264917</v>
@@ -2968,7 +2968,7 @@
         <v>101.7070935500047</v>
       </c>
       <c r="I31" t="n">
-        <v>53.48793814224277</v>
+        <v>53.48793814224268</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.19662887473893</v>
+        <v>46.19662887473886</v>
       </c>
       <c r="S31" t="n">
-        <v>146.7950307103966</v>
+        <v>146.7950307103965</v>
       </c>
       <c r="T31" t="n">
-        <v>176.4610334650145</v>
+        <v>176.4610334650144</v>
       </c>
       <c r="U31" t="n">
         <v>243.0873920335661</v>
       </c>
       <c r="V31" t="n">
-        <v>209.0127247764249</v>
+        <v>209.0127247764248</v>
       </c>
       <c r="W31" t="n">
-        <v>243.3980797891879</v>
+        <v>142.2673411276994</v>
       </c>
       <c r="X31" t="n">
         <v>182.584736841634</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.4597348046917</v>
+        <v>175.4597348046916</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F32" t="n">
-        <v>359.5092083551129</v>
+        <v>359.5092083551128</v>
       </c>
       <c r="G32" t="n">
         <v>363.574194730331</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.26087043803932</v>
+        <v>62.26087043803926</v>
       </c>
       <c r="T32" t="n">
         <v>156.6356467968883</v>
@@ -3089,10 +3089,10 @@
         <v>280.3854210835364</v>
       </c>
       <c r="W32" t="n">
-        <v>301.8741313308145</v>
+        <v>301.8741313308144</v>
       </c>
       <c r="X32" t="n">
-        <v>322.3642632918705</v>
+        <v>322.3642632918704</v>
       </c>
       <c r="Y32" t="n">
         <v>338.871101269455</v>
@@ -3123,10 +3123,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H33" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I33" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E34" t="n">
-        <v>99.06712525997062</v>
+        <v>99.0671252599706</v>
       </c>
       <c r="F34" t="n">
-        <v>98.0542106363327</v>
+        <v>98.05421063633267</v>
       </c>
       <c r="G34" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H34" t="n">
-        <v>97.46517471080931</v>
+        <v>97.46517471080926</v>
       </c>
       <c r="I34" t="n">
-        <v>49.24601930304735</v>
+        <v>49.24601930304731</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95471003554351</v>
+        <v>41.95471003554347</v>
       </c>
       <c r="S34" t="n">
         <v>142.5531118712011</v>
@@ -3241,13 +3241,13 @@
         <v>172.219114625819</v>
       </c>
       <c r="U34" t="n">
-        <v>238.8454731943707</v>
+        <v>238.8454731943709</v>
       </c>
       <c r="V34" t="n">
-        <v>204.7708059372295</v>
+        <v>204.7708059372294</v>
       </c>
       <c r="W34" t="n">
-        <v>239.1561609499925</v>
+        <v>239.1561609499924</v>
       </c>
       <c r="X34" t="n">
         <v>178.3428180024386</v>
@@ -3266,7 +3266,7 @@
         <v>335.367004276882</v>
       </c>
       <c r="C35" t="n">
-        <v>317.9060543844089</v>
+        <v>317.906054384409</v>
       </c>
       <c r="D35" t="n">
         <v>307.3162042340844</v>
@@ -3275,13 +3275,13 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F35" t="n">
-        <v>359.5092083551128</v>
+        <v>359.5092083551129</v>
       </c>
       <c r="G35" t="n">
         <v>363.574194730331</v>
       </c>
       <c r="H35" t="n">
-        <v>247.4386493197966</v>
+        <v>247.4386493197967</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>62.26087043803929</v>
       </c>
       <c r="T35" t="n">
-        <v>156.6356467968882</v>
+        <v>156.6356467968883</v>
       </c>
       <c r="U35" t="n">
         <v>203.6298790893815</v>
       </c>
       <c r="V35" t="n">
-        <v>280.3854210835363</v>
+        <v>280.3854210835364</v>
       </c>
       <c r="W35" t="n">
-        <v>301.8741313308144</v>
+        <v>301.8741313308145</v>
       </c>
       <c r="X35" t="n">
-        <v>322.3642632918704</v>
+        <v>322.3642632918705</v>
       </c>
       <c r="Y35" t="n">
         <v>338.871101269455</v>
@@ -3360,10 +3360,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H36" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I36" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.4651427953387</v>
       </c>
       <c r="C37" t="n">
-        <v>119.8799837120292</v>
+        <v>119.8799837120293</v>
       </c>
       <c r="D37" t="n">
         <v>101.2486356316138</v>
       </c>
       <c r="E37" t="n">
-        <v>99.06712525997058</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F37" t="n">
-        <v>98.05421063633266</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G37" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H37" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080929</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24601930304731</v>
+        <v>49.24601930304733</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95471003554346</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S37" t="n">
         <v>142.5531118712011</v>
@@ -3478,16 +3478,16 @@
         <v>172.219114625819</v>
       </c>
       <c r="U37" t="n">
-        <v>238.8454731943706</v>
+        <v>238.8454731943707</v>
       </c>
       <c r="V37" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W37" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X37" t="n">
-        <v>178.3428180024385</v>
+        <v>178.3428180024386</v>
       </c>
       <c r="Y37" t="n">
         <v>171.2178159654962</v>
@@ -3597,10 +3597,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H39" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I39" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E40" t="n">
-        <v>99.06712525997061</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F40" t="n">
-        <v>98.05421063633268</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G40" t="n">
         <v>118.6676310872963</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95471003554351</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S40" t="n">
         <v>142.5531118712011</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.26087043803932</v>
+        <v>62.26087043803929</v>
       </c>
       <c r="T41" t="n">
         <v>156.6356467968883</v>
@@ -3834,10 +3834,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H42" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I42" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>118.6676310872963</v>
       </c>
       <c r="H43" t="n">
-        <v>97.46517471080931</v>
+        <v>97.46517471080929</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24601930304735</v>
+        <v>49.24601930304733</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95471003554351</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S43" t="n">
         <v>142.5531118712011</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26087043803932</v>
+        <v>62.26087043803929</v>
       </c>
       <c r="T44" t="n">
         <v>156.6356467968883</v>
@@ -4071,10 +4071,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H45" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I45" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>118.6676310872963</v>
       </c>
       <c r="H46" t="n">
-        <v>97.46517471080931</v>
+        <v>97.46517471080929</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24601930304735</v>
+        <v>49.24601930304733</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95471003554351</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S46" t="n">
         <v>142.5531118712011</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C8" t="n">
         <v>44.20882949099123</v>
@@ -4805,19 +4805,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4826,28 +4826,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="F9" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="G9" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="H9" t="n">
         <v>17.43566227534506</v>
@@ -4884,7 +4884,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L9" t="n">
         <v>15.7618196405891</v>
@@ -4908,25 +4908,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="C10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="D10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="E10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="F10" t="n">
-        <v>27.54739878238201</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="G10" t="n">
-        <v>27.54739878238201</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="H10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="J10" t="n">
         <v>16.68152962255934</v>
@@ -5002,10 +5002,10 @@
         <v>58.46202002507908</v>
       </c>
       <c r="X10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.653247113919</v>
+        <v>1357.293531023746</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.690730173507</v>
+        <v>988.3310140833346</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.690730173507</v>
+        <v>988.3310140833346</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.902477575263</v>
+        <v>602.5427614850903</v>
       </c>
       <c r="F11" t="n">
-        <v>778.9165727856555</v>
+        <v>191.5568566954828</v>
       </c>
       <c r="G11" t="n">
-        <v>363.8246211523931</v>
+        <v>108.7900307480433</v>
       </c>
       <c r="H11" t="n">
-        <v>66.04130124694336</v>
+        <v>108.7900307480433</v>
       </c>
       <c r="I11" t="n">
-        <v>66.04130124694336</v>
+        <v>66.04130124694339</v>
       </c>
       <c r="J11" t="n">
         <v>253.2982063710579</v>
       </c>
       <c r="K11" t="n">
-        <v>584.686284053038</v>
+        <v>584.6862840530384</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.704259613789</v>
+        <v>1032.70425961379</v>
       </c>
       <c r="M11" t="n">
-        <v>1562.880018691411</v>
+        <v>1562.880018691412</v>
       </c>
       <c r="N11" t="n">
-        <v>2106.248384211433</v>
+        <v>2106.248384211434</v>
       </c>
       <c r="O11" t="n">
-        <v>2606.000462411738</v>
+        <v>2606.00046241174</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.026298123781</v>
+        <v>2998.026298123782</v>
       </c>
       <c r="Q11" t="n">
-        <v>3244.248627830334</v>
+        <v>3244.248627830335</v>
       </c>
       <c r="R11" t="n">
-        <v>3302.065062347168</v>
+        <v>3302.065062347169</v>
       </c>
       <c r="S11" t="n">
-        <v>3300.921292751787</v>
+        <v>3191.330003938445</v>
       </c>
       <c r="T11" t="n">
-        <v>3094.858177414932</v>
+        <v>3191.330003938445</v>
       </c>
       <c r="U11" t="n">
-        <v>3094.858177414932</v>
+        <v>3191.330003938445</v>
       </c>
       <c r="V11" t="n">
-        <v>3094.858177414932</v>
+        <v>2860.267116594874</v>
       </c>
       <c r="W11" t="n">
-        <v>3094.858177414932</v>
+        <v>2507.49846132476</v>
       </c>
       <c r="X11" t="n">
-        <v>2721.392419153853</v>
+        <v>2134.03270306368</v>
       </c>
       <c r="Y11" t="n">
-        <v>2331.253087178041</v>
+        <v>1743.893371087868</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>165.7824803393456</v>
       </c>
       <c r="H12" t="n">
-        <v>75.17981346813286</v>
+        <v>75.17981346813288</v>
       </c>
       <c r="I12" t="n">
-        <v>66.04130124694336</v>
+        <v>66.04130124694339</v>
       </c>
       <c r="J12" t="n">
-        <v>158.7523841436469</v>
+        <v>158.752384143647</v>
       </c>
       <c r="K12" t="n">
-        <v>395.3652163430589</v>
+        <v>395.365216343059</v>
       </c>
       <c r="L12" t="n">
-        <v>759.8429102274386</v>
+        <v>759.8429102274388</v>
       </c>
       <c r="M12" t="n">
         <v>1204.52805586058</v>
@@ -5133,10 +5133,10 @@
         <v>1675.391339012431</v>
       </c>
       <c r="O12" t="n">
-        <v>2083.919457288475</v>
+        <v>2083.919457288476</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.466222436839</v>
+        <v>2398.581210861793</v>
       </c>
       <c r="Q12" t="n">
         <v>2554.917355824244</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.0544341888084</v>
+        <v>461.729794049224</v>
       </c>
       <c r="C13" t="n">
-        <v>677.0544341888084</v>
+        <v>292.7936111213171</v>
       </c>
       <c r="D13" t="n">
-        <v>526.9377947764726</v>
+        <v>142.6769717089816</v>
       </c>
       <c r="E13" t="n">
-        <v>526.9377947764726</v>
+        <v>142.6769717089816</v>
       </c>
       <c r="F13" t="n">
-        <v>380.0478472785622</v>
+        <v>142.6769717089816</v>
       </c>
       <c r="G13" t="n">
-        <v>212.3362629614967</v>
+        <v>142.6769717089816</v>
       </c>
       <c r="H13" t="n">
-        <v>66.04130124694336</v>
+        <v>142.6769717089816</v>
       </c>
       <c r="I13" t="n">
-        <v>66.04130124694336</v>
+        <v>66.04130124694339</v>
       </c>
       <c r="J13" t="n">
-        <v>110.5577792747179</v>
+        <v>110.557779274718</v>
       </c>
       <c r="K13" t="n">
-        <v>313.5488643096329</v>
+        <v>313.548864309633</v>
       </c>
       <c r="L13" t="n">
-        <v>628.8340003727668</v>
+        <v>628.8340003727674</v>
       </c>
       <c r="M13" t="n">
-        <v>971.6470932078059</v>
+        <v>971.6470932078067</v>
       </c>
       <c r="N13" t="n">
-        <v>1311.743473342019</v>
+        <v>1311.74347334202</v>
       </c>
       <c r="O13" t="n">
-        <v>1609.861231075713</v>
+        <v>1609.861231075714</v>
       </c>
       <c r="P13" t="n">
-        <v>1841.4317920221</v>
+        <v>1841.431792022101</v>
       </c>
       <c r="Q13" t="n">
-        <v>1918.324165022384</v>
+        <v>1918.324165022386</v>
       </c>
       <c r="R13" t="n">
-        <v>1828.100379747494</v>
+        <v>1828.100379747495</v>
       </c>
       <c r="S13" t="n">
-        <v>1828.100379747494</v>
+        <v>1636.262047163859</v>
       </c>
       <c r="T13" t="n">
-        <v>1691.907901283077</v>
+        <v>1636.262047163859</v>
       </c>
       <c r="U13" t="n">
-        <v>1402.804557261896</v>
+        <v>1636.262047163859</v>
       </c>
       <c r="V13" t="n">
-        <v>1148.120069056009</v>
+        <v>1381.577558957972</v>
       </c>
       <c r="W13" t="n">
-        <v>858.702899019048</v>
+        <v>1092.160388921011</v>
       </c>
       <c r="X13" t="n">
-        <v>858.702899019048</v>
+        <v>864.1708380229938</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.702899019048</v>
+        <v>643.3782588794637</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5252,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.349835057013</v>
+        <v>1879.825387857727</v>
       </c>
       <c r="C14" t="n">
-        <v>1913.672084620839</v>
+        <v>1515.147637421553</v>
       </c>
       <c r="D14" t="n">
-        <v>1610.437853444926</v>
+        <v>1161.166705319041</v>
       </c>
       <c r="E14" t="n">
-        <v>1228.93436735092</v>
+        <v>779.663219225034</v>
       </c>
       <c r="F14" t="n">
-        <v>822.2332290655499</v>
+        <v>372.9620809396641</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4260439365257</v>
+        <v>372.9620809396641</v>
       </c>
       <c r="H14" t="n">
-        <v>117.9274905353143</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="I14" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J14" t="n">
-        <v>434.1260816829189</v>
+        <v>395.6369591034176</v>
       </c>
       <c r="K14" t="n">
-        <v>765.5141593648991</v>
+        <v>727.025036785398</v>
       </c>
       <c r="L14" t="n">
-        <v>1213.532134925651</v>
+        <v>1175.04301234615</v>
       </c>
       <c r="M14" t="n">
-        <v>1743.707894003272</v>
+        <v>1705.218771423772</v>
       </c>
       <c r="N14" t="n">
-        <v>2287.076259523295</v>
+        <v>2248.587136943795</v>
       </c>
       <c r="O14" t="n">
-        <v>2786.8283377236</v>
+        <v>2748.3392151441</v>
       </c>
       <c r="P14" t="n">
-        <v>3393.886516271659</v>
+        <v>3458.945771945911</v>
       </c>
       <c r="Q14" t="n">
-        <v>3850.300686731517</v>
+        <v>3915.359942405769</v>
       </c>
       <c r="R14" t="n">
         <v>3973.176376922604</v>
       </c>
       <c r="S14" t="n">
-        <v>3866.726085018117</v>
+        <v>3866.726085018116</v>
       </c>
       <c r="T14" t="n">
         <v>3664.947736185499</v>
@@ -5312,16 +5312,16 @@
         <v>3415.700465845312</v>
       </c>
       <c r="V14" t="n">
-        <v>3415.700465845312</v>
+        <v>3088.922345005979</v>
       </c>
       <c r="W14" t="n">
-        <v>3415.700465845312</v>
+        <v>2740.438456240103</v>
       </c>
       <c r="X14" t="n">
-        <v>3046.51947408847</v>
+        <v>2371.25746448326</v>
       </c>
       <c r="Y14" t="n">
-        <v>2660.664908616896</v>
+        <v>2262.140461417611</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>621.3502539875562</v>
       </c>
       <c r="E15" t="n">
-        <v>462.1127989821008</v>
+        <v>462.1127989821007</v>
       </c>
       <c r="F15" t="n">
-        <v>315.5782410089857</v>
+        <v>315.5782410089856</v>
       </c>
       <c r="G15" t="n">
-        <v>179.2047066308544</v>
+        <v>179.2047066308543</v>
       </c>
       <c r="H15" t="n">
-        <v>88.6020397596416</v>
+        <v>88.60203975964154</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J15" t="n">
-        <v>172.1746104351556</v>
+        <v>178.2895988601085</v>
       </c>
       <c r="K15" t="n">
-        <v>408.7874426345676</v>
+        <v>414.9024310595206</v>
       </c>
       <c r="L15" t="n">
-        <v>773.2651365189472</v>
+        <v>779.3801249439005</v>
       </c>
       <c r="M15" t="n">
-        <v>1217.950282152089</v>
+        <v>1224.065270577042</v>
       </c>
       <c r="N15" t="n">
-        <v>1688.813565303939</v>
+        <v>1694.928553728893</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.341683579984</v>
+        <v>2103.456672004938</v>
       </c>
       <c r="P15" t="n">
-        <v>2405.888448728348</v>
+        <v>2412.003437153302</v>
       </c>
       <c r="Q15" t="n">
         <v>2568.339582115752</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.5666087243139</v>
+        <v>620.8096991819858</v>
       </c>
       <c r="C16" t="n">
-        <v>398.9151923006448</v>
+        <v>620.8096991819858</v>
       </c>
       <c r="D16" t="n">
-        <v>253.0833193925469</v>
+        <v>620.8096991819858</v>
       </c>
       <c r="E16" t="n">
-        <v>109.454992314392</v>
+        <v>620.8096991819858</v>
       </c>
       <c r="F16" t="n">
-        <v>109.454992314392</v>
+        <v>478.2045181883131</v>
       </c>
       <c r="G16" t="n">
-        <v>109.454992314392</v>
+        <v>314.7777003754853</v>
       </c>
       <c r="H16" t="n">
-        <v>109.454992314392</v>
+        <v>172.7675051651697</v>
       </c>
       <c r="I16" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J16" t="n">
-        <v>128.1795052170299</v>
+        <v>128.17950521703</v>
       </c>
       <c r="K16" t="n">
-        <v>335.3700899027484</v>
+        <v>335.3700899027485</v>
       </c>
       <c r="L16" t="n">
-        <v>654.8547256166862</v>
+        <v>654.8547256166863</v>
       </c>
       <c r="M16" t="n">
         <v>1001.867318102529</v>
@@ -5458,28 +5458,28 @@
         <v>1965.342388520321</v>
       </c>
       <c r="R16" t="n">
-        <v>1965.342388520321</v>
+        <v>1879.403369749668</v>
       </c>
       <c r="S16" t="n">
-        <v>1777.788822440923</v>
+        <v>1691.84980367027</v>
       </c>
       <c r="T16" t="n">
-        <v>1777.788822440923</v>
+        <v>1474.330578242773</v>
       </c>
       <c r="U16" t="n">
-        <v>1492.97024492398</v>
+        <v>1474.330578242773</v>
       </c>
       <c r="V16" t="n">
-        <v>1242.570523222331</v>
+        <v>1223.930856541124</v>
       </c>
       <c r="W16" t="n">
-        <v>957.4381196896081</v>
+        <v>938.7984530084008</v>
       </c>
       <c r="X16" t="n">
-        <v>957.4381196896081</v>
+        <v>715.0936686146212</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.9303070503158</v>
+        <v>620.8096991819858</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2029.269430275216</v>
+        <v>2029.269430275217</v>
       </c>
       <c r="C17" t="n">
-        <v>1708.152203624298</v>
+        <v>1708.152203624299</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.731795307041</v>
+        <v>1397.731795307042</v>
       </c>
       <c r="E17" t="n">
-        <v>1059.78883299829</v>
+        <v>1059.788832998291</v>
       </c>
       <c r="F17" t="n">
-        <v>696.6482184981764</v>
+        <v>696.6482184981769</v>
       </c>
       <c r="G17" t="n">
-        <v>329.4015571544083</v>
+        <v>329.4015571544084</v>
       </c>
       <c r="H17" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="I17" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J17" t="n">
-        <v>434.1260816829189</v>
+        <v>434.1260816829191</v>
       </c>
       <c r="K17" t="n">
-        <v>765.5141593648991</v>
+        <v>765.5141593648996</v>
       </c>
       <c r="L17" t="n">
         <v>1213.532134925651</v>
       </c>
       <c r="M17" t="n">
-        <v>1743.707894003272</v>
+        <v>1743.707894003274</v>
       </c>
       <c r="N17" t="n">
-        <v>2287.076259523295</v>
+        <v>2287.076259523296</v>
       </c>
       <c r="O17" t="n">
-        <v>2786.8283377236</v>
+        <v>2786.828337723602</v>
       </c>
       <c r="P17" t="n">
-        <v>3393.886516271659</v>
+        <v>3393.886516271658</v>
       </c>
       <c r="Q17" t="n">
         <v>3850.300686731517</v>
@@ -5546,16 +5546,16 @@
         <v>3752.06878375601</v>
       </c>
       <c r="U17" t="n">
-        <v>3546.38203720108</v>
+        <v>3546.382037201079</v>
       </c>
       <c r="V17" t="n">
-        <v>3263.164440147003</v>
+        <v>3340.861854688371</v>
       </c>
       <c r="W17" t="n">
-        <v>2958.241075166382</v>
+        <v>3035.93848970775</v>
       </c>
       <c r="X17" t="n">
-        <v>2632.620607194795</v>
+        <v>2710.318021736164</v>
       </c>
       <c r="Y17" t="n">
         <v>2368.023980049845</v>
@@ -5577,43 +5577,43 @@
         <v>621.3502539875562</v>
       </c>
       <c r="E18" t="n">
-        <v>462.1127989821008</v>
+        <v>462.1127989821007</v>
       </c>
       <c r="F18" t="n">
-        <v>315.5782410089857</v>
+        <v>315.5782410089856</v>
       </c>
       <c r="G18" t="n">
-        <v>179.2047066308544</v>
+        <v>179.2047066308543</v>
       </c>
       <c r="H18" t="n">
-        <v>88.6020397596416</v>
+        <v>88.60203975964154</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J18" t="n">
-        <v>172.1746104351556</v>
+        <v>178.2895988601085</v>
       </c>
       <c r="K18" t="n">
-        <v>408.7874426345676</v>
+        <v>414.9024310595206</v>
       </c>
       <c r="L18" t="n">
-        <v>773.2651365189472</v>
+        <v>779.3801249439005</v>
       </c>
       <c r="M18" t="n">
-        <v>1217.950282152089</v>
+        <v>1224.065270577042</v>
       </c>
       <c r="N18" t="n">
-        <v>1688.813565303939</v>
+        <v>1694.928553728893</v>
       </c>
       <c r="O18" t="n">
-        <v>2097.341683579984</v>
+        <v>2103.456672004938</v>
       </c>
       <c r="P18" t="n">
-        <v>2405.888448728348</v>
+        <v>2412.003437153302</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.224593690798</v>
+        <v>2568.339582115752</v>
       </c>
       <c r="R18" t="n">
         <v>2568.339582115752</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769.9976490951178</v>
+        <v>769.9976490951182</v>
       </c>
       <c r="C19" t="n">
-        <v>648.9067564567044</v>
+        <v>648.9067564567047</v>
       </c>
       <c r="D19" t="n">
-        <v>546.6354073338623</v>
+        <v>546.6354073338624</v>
       </c>
       <c r="E19" t="n">
-        <v>446.5676040409627</v>
+        <v>446.5676040409628</v>
       </c>
       <c r="F19" t="n">
         <v>347.5229468325459</v>
@@ -5665,22 +5665,22 @@
         <v>227.6566528049739</v>
       </c>
       <c r="H19" t="n">
-        <v>129.206981379914</v>
+        <v>129.2069813799139</v>
       </c>
       <c r="I19" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J19" t="n">
-        <v>170.8731745789593</v>
+        <v>170.8731745789592</v>
       </c>
       <c r="K19" t="n">
         <v>420.7574286266067</v>
       </c>
       <c r="L19" t="n">
-        <v>782.9357337024736</v>
+        <v>782.935733702474</v>
       </c>
       <c r="M19" t="n">
-        <v>1172.641995550245</v>
+        <v>1172.641995550246</v>
       </c>
       <c r="N19" t="n">
         <v>1559.631544697191</v>
@@ -5692,19 +5692,19 @@
         <v>2183.106201402737</v>
       </c>
       <c r="Q19" t="n">
-        <v>2306.891743415754</v>
+        <v>2306.891743415755</v>
       </c>
       <c r="R19" t="n">
-        <v>2264.513248430356</v>
+        <v>2264.513248430357</v>
       </c>
       <c r="S19" t="n">
-        <v>2120.520206136214</v>
+        <v>2120.520206136215</v>
       </c>
       <c r="T19" t="n">
         <v>1946.561504493973</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.303450762285</v>
+        <v>1705.303450762286</v>
       </c>
       <c r="V19" t="n">
         <v>1498.464252845892</v>
@@ -5713,10 +5713,10 @@
         <v>1256.892373098425</v>
       </c>
       <c r="X19" t="n">
-        <v>1076.7481124899</v>
+        <v>1076.748112489901</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.8008236358639</v>
+        <v>903.8008236358644</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1951.572015733849</v>
+        <v>2029.269430275217</v>
       </c>
       <c r="C20" t="n">
         <v>1708.152203624299</v>
@@ -5738,37 +5738,37 @@
         <v>1059.788832998291</v>
       </c>
       <c r="F20" t="n">
-        <v>696.6482184981771</v>
+        <v>696.648218498177</v>
       </c>
       <c r="G20" t="n">
         <v>329.4015571544084</v>
       </c>
       <c r="H20" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="I20" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J20" t="n">
-        <v>434.1260816829189</v>
+        <v>434.1260816829191</v>
       </c>
       <c r="K20" t="n">
-        <v>765.5141593648991</v>
+        <v>765.5141593648993</v>
       </c>
       <c r="L20" t="n">
         <v>1213.532134925651</v>
       </c>
       <c r="M20" t="n">
-        <v>1743.707894003272</v>
+        <v>1743.707894003273</v>
       </c>
       <c r="N20" t="n">
         <v>2287.076259523295</v>
       </c>
       <c r="O20" t="n">
-        <v>2786.8283377236</v>
+        <v>2786.828337723601</v>
       </c>
       <c r="P20" t="n">
-        <v>3393.886516271659</v>
+        <v>3497.434894525411</v>
       </c>
       <c r="Q20" t="n">
         <v>3850.300686731517</v>
@@ -5783,19 +5783,19 @@
         <v>3752.06878375601</v>
       </c>
       <c r="U20" t="n">
-        <v>3546.38203720108</v>
+        <v>3624.079451742447</v>
       </c>
       <c r="V20" t="n">
-        <v>3263.164440147002</v>
+        <v>3340.86185468837</v>
       </c>
       <c r="W20" t="n">
-        <v>2958.241075166382</v>
+        <v>3035.93848970775</v>
       </c>
       <c r="X20" t="n">
-        <v>2632.620607194795</v>
+        <v>2710.318021736163</v>
       </c>
       <c r="Y20" t="n">
-        <v>2290.326565508477</v>
+        <v>2368.023980049845</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>621.3502539875562</v>
       </c>
       <c r="E21" t="n">
-        <v>462.1127989821008</v>
+        <v>462.1127989821007</v>
       </c>
       <c r="F21" t="n">
-        <v>315.5782410089857</v>
+        <v>315.5782410089856</v>
       </c>
       <c r="G21" t="n">
-        <v>179.2047066308544</v>
+        <v>179.2047066308543</v>
       </c>
       <c r="H21" t="n">
-        <v>88.6020397596416</v>
+        <v>88.60203975964156</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J21" t="n">
         <v>172.1746104351556</v>
       </c>
       <c r="K21" t="n">
-        <v>408.7874426345676</v>
+        <v>408.7874426345677</v>
       </c>
       <c r="L21" t="n">
-        <v>773.2651365189472</v>
+        <v>773.2651365189474</v>
       </c>
       <c r="M21" t="n">
         <v>1217.950282152089</v>
       </c>
       <c r="N21" t="n">
-        <v>1688.813565303939</v>
+        <v>1688.81356530394</v>
       </c>
       <c r="O21" t="n">
         <v>2097.341683579984</v>
       </c>
       <c r="P21" t="n">
-        <v>2405.888448728348</v>
+        <v>2405.888448728349</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.224593690798</v>
+        <v>2562.224593690799</v>
       </c>
       <c r="R21" t="n">
         <v>2568.339582115752</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>769.9976490951182</v>
+        <v>769.9976490951183</v>
       </c>
       <c r="C22" t="n">
-        <v>648.9067564567048</v>
+        <v>648.9067564567049</v>
       </c>
       <c r="D22" t="n">
-        <v>546.6354073338625</v>
+        <v>546.6354073338626</v>
       </c>
       <c r="E22" t="n">
-        <v>446.5676040409629</v>
+        <v>446.567604040963</v>
       </c>
       <c r="F22" t="n">
-        <v>347.522946832546</v>
+        <v>347.5229468325462</v>
       </c>
       <c r="G22" t="n">
-        <v>227.656652804974</v>
+        <v>227.6566528049741</v>
       </c>
       <c r="H22" t="n">
-        <v>129.2069813799141</v>
+        <v>129.206981379914</v>
       </c>
       <c r="I22" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845207</v>
       </c>
       <c r="J22" t="n">
-        <v>170.8731745789593</v>
+        <v>170.8731745789589</v>
       </c>
       <c r="K22" t="n">
-        <v>420.7574286266068</v>
+        <v>420.7574286266066</v>
       </c>
       <c r="L22" t="n">
-        <v>782.9357337024737</v>
+        <v>782.9357337024735</v>
       </c>
       <c r="M22" t="n">
         <v>1172.641995550245</v>
       </c>
       <c r="N22" t="n">
-        <v>1559.631544697191</v>
+        <v>1559.63154469719</v>
       </c>
       <c r="O22" t="n">
-        <v>1904.642471443618</v>
+        <v>1904.642471443617</v>
       </c>
       <c r="P22" t="n">
         <v>2183.106201402737</v>
@@ -5941,7 +5941,7 @@
         <v>1946.561504493973</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.303450762285</v>
+        <v>1705.303450762286</v>
       </c>
       <c r="V22" t="n">
         <v>1498.464252845892</v>
@@ -5953,7 +5953,7 @@
         <v>1076.748112489901</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.8008236358644</v>
+        <v>903.8008236358645</v>
       </c>
     </row>
     <row r="23">
@@ -5975,55 +5975,55 @@
         <v>1061.374494519543</v>
       </c>
       <c r="F23" t="n">
-        <v>698.2338800194289</v>
+        <v>698.2338800194293</v>
       </c>
       <c r="G23" t="n">
         <v>330.9872186756608</v>
       </c>
       <c r="H23" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="I23" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J23" t="n">
-        <v>435.7117432041713</v>
+        <v>435.7117432041715</v>
       </c>
       <c r="K23" t="n">
-        <v>767.0998208861515</v>
+        <v>767.0998208861517</v>
       </c>
       <c r="L23" t="n">
         <v>1215.117796446903</v>
       </c>
       <c r="M23" t="n">
-        <v>1745.293555524525</v>
+        <v>1745.293555524526</v>
       </c>
       <c r="N23" t="n">
-        <v>2288.661921044547</v>
+        <v>2288.661921044548</v>
       </c>
       <c r="O23" t="n">
-        <v>2788.413999244852</v>
+        <v>2788.413999244854</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.169592334279</v>
+        <v>3499.020556046664</v>
       </c>
       <c r="Q23" t="n">
-        <v>3929.583762794137</v>
+        <v>3955.434726506523</v>
       </c>
       <c r="R23" t="n">
         <v>4052.459452985224</v>
       </c>
       <c r="S23" t="n">
-        <v>3989.569684865992</v>
+        <v>3989.569684865993</v>
       </c>
       <c r="T23" t="n">
-        <v>3831.35185981863</v>
+        <v>3831.351859818631</v>
       </c>
       <c r="U23" t="n">
         <v>3625.6651132637</v>
       </c>
       <c r="V23" t="n">
-        <v>3342.447516209623</v>
+        <v>3342.447516209622</v>
       </c>
       <c r="W23" t="n">
         <v>3037.524151229002</v>
@@ -6063,28 +6063,28 @@
         <v>90.18770128089398</v>
       </c>
       <c r="I24" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J24" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K24" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L24" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N24" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O24" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.4741102496</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q24" t="n">
         <v>2563.810255212051</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.5833106163703</v>
+        <v>771.5833106163705</v>
       </c>
       <c r="C25" t="n">
-        <v>650.492417977957</v>
+        <v>650.4924179779571</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2210688551147</v>
+        <v>548.2210688551148</v>
       </c>
       <c r="E25" t="n">
-        <v>448.1532655622151</v>
+        <v>448.1532655622152</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1086083537991</v>
+        <v>349.1086083537983</v>
       </c>
       <c r="G25" t="n">
         <v>229.2423143262263</v>
@@ -6142,16 +6142,16 @@
         <v>130.7926429011664</v>
       </c>
       <c r="I25" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J25" t="n">
-        <v>172.4588361002116</v>
+        <v>172.4588361002117</v>
       </c>
       <c r="K25" t="n">
-        <v>422.3430901478592</v>
+        <v>422.3430901478591</v>
       </c>
       <c r="L25" t="n">
-        <v>784.5213952237261</v>
+        <v>784.521395223726</v>
       </c>
       <c r="M25" t="n">
         <v>1174.227657071498</v>
@@ -6190,7 +6190,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.3864851571166</v>
+        <v>905.3864851571167</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2030.85509179647</v>
+        <v>2030.855091796471</v>
       </c>
       <c r="C26" t="n">
-        <v>1709.737865145552</v>
+        <v>1709.737865145553</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.317456828295</v>
+        <v>1399.317456828296</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.374494519544</v>
+        <v>1061.374494519545</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2338800194304</v>
+        <v>698.2338800194307</v>
       </c>
       <c r="G26" t="n">
         <v>330.9872186756608</v>
@@ -6224,22 +6224,22 @@
         <v>81.04918905970452</v>
       </c>
       <c r="J26" t="n">
-        <v>268.3060941838183</v>
+        <v>268.3060941838185</v>
       </c>
       <c r="K26" t="n">
-        <v>599.6941718657986</v>
+        <v>599.6941718657989</v>
       </c>
       <c r="L26" t="n">
-        <v>1047.71214742655</v>
+        <v>1047.712147426551</v>
       </c>
       <c r="M26" t="n">
-        <v>2022.906304662076</v>
+        <v>1880.300954161603</v>
       </c>
       <c r="N26" t="n">
-        <v>2566.274670182098</v>
+        <v>2856.64277484949</v>
       </c>
       <c r="O26" t="n">
-        <v>3066.026748382404</v>
+        <v>3356.394853049796</v>
       </c>
       <c r="P26" t="n">
         <v>3748.420688761838</v>
@@ -6263,7 +6263,7 @@
         <v>3342.447516209624</v>
       </c>
       <c r="W26" t="n">
-        <v>3037.524151229003</v>
+        <v>3037.524151229004</v>
       </c>
       <c r="X26" t="n">
         <v>2711.903683257417</v>
@@ -6288,16 +6288,16 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E27" t="n">
-        <v>463.6984605033532</v>
+        <v>463.6984605033531</v>
       </c>
       <c r="F27" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G27" t="n">
-        <v>180.7903681521068</v>
+        <v>180.7903681521067</v>
       </c>
       <c r="H27" t="n">
-        <v>90.18770128089403</v>
+        <v>90.18770128089399</v>
       </c>
       <c r="I27" t="n">
         <v>81.04918905970452</v>
@@ -6306,22 +6306,22 @@
         <v>173.7602719564081</v>
       </c>
       <c r="K27" t="n">
-        <v>416.4880925807739</v>
+        <v>410.3731041558203</v>
       </c>
       <c r="L27" t="n">
-        <v>780.9657864651535</v>
+        <v>774.8507980402001</v>
       </c>
       <c r="M27" t="n">
-        <v>1225.650932098295</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N27" t="n">
-        <v>1696.514215250146</v>
+        <v>1690.399226825193</v>
       </c>
       <c r="O27" t="n">
-        <v>2105.04233352619</v>
+        <v>2098.927345101238</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.589098674554</v>
+        <v>2407.474110249602</v>
       </c>
       <c r="Q27" t="n">
         <v>2569.925243637005</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.5833106163705</v>
+        <v>771.5833106163707</v>
       </c>
       <c r="C28" t="n">
-        <v>650.4924179779571</v>
+        <v>650.4924179779573</v>
       </c>
       <c r="D28" t="n">
-        <v>548.2210688551148</v>
+        <v>548.221068855115</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1532655622152</v>
+        <v>448.1532655622154</v>
       </c>
       <c r="F28" t="n">
-        <v>349.1086083537984</v>
+        <v>349.1086083537986</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2423143262264</v>
+        <v>229.2423143262265</v>
       </c>
       <c r="H28" t="n">
         <v>130.7926429011665</v>
@@ -6385,49 +6385,49 @@
         <v>172.4588361002117</v>
       </c>
       <c r="K28" t="n">
-        <v>422.3430901478592</v>
+        <v>422.3430901478594</v>
       </c>
       <c r="L28" t="n">
-        <v>784.5213952237262</v>
+        <v>784.5213952237264</v>
       </c>
       <c r="M28" t="n">
         <v>1174.227657071498</v>
       </c>
       <c r="N28" t="n">
-        <v>1561.217206218443</v>
+        <v>1561.217206218444</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.22813296487</v>
+        <v>1906.228132964871</v>
       </c>
       <c r="P28" t="n">
         <v>2184.69186292399</v>
       </c>
       <c r="Q28" t="n">
-        <v>2308.477404937007</v>
+        <v>2308.477404937008</v>
       </c>
       <c r="R28" t="n">
-        <v>2266.098909951609</v>
+        <v>2266.09890995161</v>
       </c>
       <c r="S28" t="n">
-        <v>2122.105867657467</v>
+        <v>2122.105867657468</v>
       </c>
       <c r="T28" t="n">
-        <v>1948.147166015225</v>
+        <v>1948.147166015226</v>
       </c>
       <c r="U28" t="n">
         <v>1706.889112283538</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.049914367144</v>
+        <v>1500.049914367145</v>
       </c>
       <c r="W28" t="n">
         <v>1258.478034619677</v>
       </c>
       <c r="X28" t="n">
-        <v>1078.333774011153</v>
+        <v>1078.333774011154</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.3864851571167</v>
+        <v>905.3864851571169</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2057.787909823107</v>
+        <v>2057.787909823108</v>
       </c>
       <c r="C29" t="n">
-        <v>1732.385916667951</v>
+        <v>1732.385916667952</v>
       </c>
       <c r="D29" t="n">
-        <v>1417.680741846456</v>
+        <v>1417.680741846457</v>
       </c>
       <c r="E29" t="n">
-        <v>1075.453013033468</v>
+        <v>1075.453013033469</v>
       </c>
       <c r="F29" t="n">
-        <v>708.027632029116</v>
+        <v>708.0276320291168</v>
       </c>
       <c r="G29" t="n">
-        <v>336.4962041811094</v>
+        <v>336.4962041811093</v>
       </c>
       <c r="H29" t="n">
         <v>82.2734080609153</v>
@@ -6461,22 +6461,22 @@
         <v>82.2734080609153</v>
       </c>
       <c r="J29" t="n">
-        <v>425.4188675344334</v>
+        <v>269.5303131850293</v>
       </c>
       <c r="K29" t="n">
-        <v>1077.710903661867</v>
+        <v>600.9183908670095</v>
       </c>
       <c r="L29" t="n">
-        <v>1525.728879222618</v>
+        <v>1048.936366427761</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.90463830024</v>
+        <v>1941.511904222143</v>
       </c>
       <c r="N29" t="n">
-        <v>2599.273003820262</v>
+        <v>2917.853724910029</v>
       </c>
       <c r="O29" t="n">
-        <v>3099.025082020567</v>
+        <v>3417.605803110335</v>
       </c>
       <c r="P29" t="n">
         <v>3809.631638822378</v>
@@ -6491,7 +6491,7 @@
         <v>4046.495868422296</v>
       </c>
       <c r="T29" t="n">
-        <v>3883.993276870695</v>
+        <v>3883.993276870696</v>
       </c>
       <c r="U29" t="n">
         <v>3674.021763811527</v>
@@ -6500,13 +6500,13 @@
         <v>3386.519400253212</v>
       </c>
       <c r="W29" t="n">
-        <v>3077.311268768353</v>
+        <v>3077.311268768354</v>
       </c>
       <c r="X29" t="n">
-        <v>2747.406034292529</v>
+        <v>2747.40603429253</v>
       </c>
       <c r="Y29" t="n">
-        <v>2400.827226101973</v>
+        <v>2400.827226101974</v>
       </c>
     </row>
     <row r="30">
@@ -6531,37 +6531,37 @@
         <v>318.3881215314489</v>
       </c>
       <c r="G30" t="n">
-        <v>182.0145871533176</v>
+        <v>182.0145871533175</v>
       </c>
       <c r="H30" t="n">
-        <v>91.4119202821048</v>
+        <v>91.41192028210479</v>
       </c>
       <c r="I30" t="n">
         <v>82.2734080609153</v>
       </c>
       <c r="J30" t="n">
-        <v>181.0994793825726</v>
+        <v>174.9844909576189</v>
       </c>
       <c r="K30" t="n">
-        <v>417.7123115819846</v>
+        <v>411.5973231570309</v>
       </c>
       <c r="L30" t="n">
-        <v>782.1900054663643</v>
+        <v>776.0750170414107</v>
       </c>
       <c r="M30" t="n">
-        <v>1226.875151099506</v>
+        <v>1220.760162674552</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.738434251356</v>
+        <v>1691.623445826403</v>
       </c>
       <c r="O30" t="n">
-        <v>2106.266552527401</v>
+        <v>2100.151564102448</v>
       </c>
       <c r="P30" t="n">
-        <v>2414.813317675765</v>
+        <v>2408.698329250812</v>
       </c>
       <c r="Q30" t="n">
-        <v>2571.149462638215</v>
+        <v>2565.034474213262</v>
       </c>
       <c r="R30" t="n">
         <v>2571.149462638215</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.6486338730127</v>
+        <v>802.8008951472452</v>
       </c>
       <c r="C31" t="n">
-        <v>575.2729747303615</v>
+        <v>677.4252360045941</v>
       </c>
       <c r="D31" t="n">
-        <v>468.7168591032814</v>
+        <v>570.8691203775142</v>
       </c>
       <c r="E31" t="n">
-        <v>364.364289306144</v>
+        <v>466.5165505803768</v>
       </c>
       <c r="F31" t="n">
-        <v>363.1871268677226</v>
+        <v>363.1871268677222</v>
       </c>
       <c r="G31" t="n">
-        <v>239.0360663359128</v>
+        <v>239.0360663359124</v>
       </c>
       <c r="H31" t="n">
-        <v>136.3016284066151</v>
+        <v>136.301628406615</v>
       </c>
       <c r="I31" t="n">
         <v>82.2734080609153</v>
       </c>
       <c r="J31" t="n">
-        <v>169.483555450619</v>
+        <v>169.4835554506188</v>
       </c>
       <c r="K31" t="n">
-        <v>415.168309847463</v>
+        <v>415.1683098474631</v>
       </c>
       <c r="L31" t="n">
-        <v>773.1471152725264</v>
+        <v>773.1471152725267</v>
       </c>
       <c r="M31" t="n">
         <v>1158.653877469495</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.443926965636</v>
+        <v>1541.443926965637</v>
       </c>
       <c r="O31" t="n">
-        <v>1882.255354061259</v>
+        <v>1882.25535406126</v>
       </c>
       <c r="P31" t="n">
-        <v>2156.519584369575</v>
+        <v>2156.519584369576</v>
       </c>
       <c r="Q31" t="n">
-        <v>2276.10562673179</v>
+        <v>2276.105626731791</v>
       </c>
       <c r="R31" t="n">
-        <v>2229.442365242155</v>
+        <v>2229.442365242156</v>
       </c>
       <c r="S31" t="n">
-        <v>2081.164556443774</v>
+        <v>2081.164556443775</v>
       </c>
       <c r="T31" t="n">
-        <v>1902.921088297295</v>
+        <v>1902.921088297296</v>
       </c>
       <c r="U31" t="n">
-        <v>1657.378268061369</v>
+        <v>1657.378268061371</v>
       </c>
       <c r="V31" t="n">
-        <v>1446.254303640738</v>
+        <v>1446.254303640739</v>
       </c>
       <c r="W31" t="n">
-        <v>1200.397657389033</v>
+        <v>1302.549918663265</v>
       </c>
       <c r="X31" t="n">
-        <v>1015.968630276271</v>
+        <v>1118.120891550504</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.7365749179967</v>
+        <v>940.8888361922292</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1061.374494519544</v>
       </c>
       <c r="F32" t="n">
-        <v>698.2338800194296</v>
+        <v>698.23388001943</v>
       </c>
       <c r="G32" t="n">
         <v>330.9872186756608</v>
@@ -6698,25 +6698,25 @@
         <v>81.0491890597045</v>
       </c>
       <c r="J32" t="n">
-        <v>268.3060941838183</v>
+        <v>268.3060941838185</v>
       </c>
       <c r="K32" t="n">
-        <v>902.10721952323</v>
+        <v>920.5981303112519</v>
       </c>
       <c r="L32" t="n">
-        <v>1350.125195083981</v>
+        <v>1368.616105872004</v>
       </c>
       <c r="M32" t="n">
-        <v>1880.300954161603</v>
+        <v>1898.791864949626</v>
       </c>
       <c r="N32" t="n">
-        <v>2856.64277484949</v>
+        <v>2442.160230469648</v>
       </c>
       <c r="O32" t="n">
-        <v>3356.394853049795</v>
+        <v>2941.912308669954</v>
       </c>
       <c r="P32" t="n">
-        <v>3748.420688761837</v>
+        <v>3538.228848008532</v>
       </c>
       <c r="Q32" t="n">
         <v>3994.64301846839</v>
@@ -6734,7 +6734,7 @@
         <v>3625.665113263701</v>
       </c>
       <c r="V32" t="n">
-        <v>3342.447516209623</v>
+        <v>3342.447516209624</v>
       </c>
       <c r="W32" t="n">
         <v>3037.524151229003</v>
@@ -6762,40 +6762,40 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E33" t="n">
-        <v>463.6984605033532</v>
+        <v>463.6984605033531</v>
       </c>
       <c r="F33" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G33" t="n">
-        <v>180.7903681521068</v>
+        <v>180.7903681521067</v>
       </c>
       <c r="H33" t="n">
-        <v>90.187701280894</v>
+        <v>90.18770128089399</v>
       </c>
       <c r="I33" t="n">
         <v>81.0491890597045</v>
       </c>
       <c r="J33" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K33" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L33" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N33" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O33" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.4741102496</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q33" t="n">
         <v>2563.810255212051</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.5833106163705</v>
+        <v>771.5833106163703</v>
       </c>
       <c r="C34" t="n">
-        <v>650.4924179779571</v>
+        <v>650.492417977957</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2210688551148</v>
+        <v>548.2210688551147</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1532655622152</v>
+        <v>448.1532655622151</v>
       </c>
       <c r="F34" t="n">
         <v>349.1086083537983</v>
@@ -6850,19 +6850,19 @@
         <v>229.2423143262263</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7926429011665</v>
+        <v>130.7926429011664</v>
       </c>
       <c r="I34" t="n">
         <v>81.0491890597045</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4588361002116</v>
+        <v>172.4588361002117</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3430901478591</v>
+        <v>422.3430901478593</v>
       </c>
       <c r="L34" t="n">
-        <v>784.521395223726</v>
+        <v>784.5213952237262</v>
       </c>
       <c r="M34" t="n">
         <v>1174.227657071498</v>
@@ -6892,7 +6892,7 @@
         <v>1706.889112283538</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.049914367145</v>
+        <v>1500.049914367144</v>
       </c>
       <c r="W34" t="n">
         <v>1258.478034619677</v>
@@ -6901,7 +6901,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.3864851571167</v>
+        <v>905.3864851571166</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2030.85509179647</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.737865145551</v>
+        <v>1709.737865145552</v>
       </c>
       <c r="D35" t="n">
         <v>1399.317456828295</v>
@@ -6926,43 +6926,43 @@
         <v>698.2338800194298</v>
       </c>
       <c r="G35" t="n">
-        <v>330.9872186756607</v>
+        <v>330.9872186756608</v>
       </c>
       <c r="H35" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="I35" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="J35" t="n">
-        <v>435.7117432041713</v>
+        <v>435.7117432041715</v>
       </c>
       <c r="K35" t="n">
-        <v>767.0998208861515</v>
+        <v>767.0998208861517</v>
       </c>
       <c r="L35" t="n">
         <v>1215.117796446903</v>
       </c>
       <c r="M35" t="n">
-        <v>1745.293555524525</v>
+        <v>1745.293555524526</v>
       </c>
       <c r="N35" t="n">
-        <v>2288.661921044547</v>
+        <v>2288.661921044548</v>
       </c>
       <c r="O35" t="n">
-        <v>2788.413999244852</v>
+        <v>2788.413999244854</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.169592334279</v>
+        <v>3499.020556046664</v>
       </c>
       <c r="Q35" t="n">
-        <v>3929.583762794137</v>
+        <v>3955.434726506523</v>
       </c>
       <c r="R35" t="n">
-        <v>4052.459452985224</v>
+        <v>4052.459452985225</v>
       </c>
       <c r="S35" t="n">
-        <v>3989.569684865992</v>
+        <v>3989.569684865993</v>
       </c>
       <c r="T35" t="n">
         <v>3831.351859818631</v>
@@ -6971,16 +6971,16 @@
         <v>3625.665113263701</v>
       </c>
       <c r="V35" t="n">
-        <v>3342.447516209623</v>
+        <v>3342.447516209624</v>
       </c>
       <c r="W35" t="n">
         <v>3037.524151229003</v>
       </c>
       <c r="X35" t="n">
-        <v>2711.903683257416</v>
+        <v>2711.903683257417</v>
       </c>
       <c r="Y35" t="n">
-        <v>2369.609641571098</v>
+        <v>2369.609641571099</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>180.7903681521067</v>
       </c>
       <c r="H36" t="n">
-        <v>90.18770128089398</v>
+        <v>90.18770128089399</v>
       </c>
       <c r="I36" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="J36" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K36" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L36" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N36" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O36" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P36" t="n">
-        <v>2413.589098674554</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q36" t="n">
-        <v>2569.925243637005</v>
+        <v>2563.810255212051</v>
       </c>
       <c r="R36" t="n">
         <v>2569.925243637005</v>
@@ -7081,25 +7081,25 @@
         <v>448.153265562215</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1086083537982</v>
+        <v>349.1086083537981</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2423143262262</v>
+        <v>229.2423143262261</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7926429011663</v>
+        <v>130.7926429011665</v>
       </c>
       <c r="I37" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4588361002114</v>
+        <v>172.4588361002117</v>
       </c>
       <c r="K37" t="n">
-        <v>422.343090147859</v>
+        <v>422.3430901478592</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5213952237259</v>
+        <v>784.5213952237261</v>
       </c>
       <c r="M37" t="n">
         <v>1174.227657071498</v>
@@ -7108,7 +7108,7 @@
         <v>1561.217206218443</v>
       </c>
       <c r="O37" t="n">
-        <v>1906.228132964869</v>
+        <v>1906.22813296487</v>
       </c>
       <c r="P37" t="n">
         <v>2184.691862923989</v>
@@ -7138,7 +7138,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.3864851571163</v>
+        <v>905.3864851571165</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.855091796471</v>
+        <v>2030.85509179647</v>
       </c>
       <c r="C38" t="n">
-        <v>1709.737865145552</v>
+        <v>1709.737865145551</v>
       </c>
       <c r="D38" t="n">
         <v>1399.317456828295</v>
@@ -7160,7 +7160,7 @@
         <v>1061.374494519544</v>
       </c>
       <c r="F38" t="n">
-        <v>698.2338800194303</v>
+        <v>698.2338800194298</v>
       </c>
       <c r="G38" t="n">
         <v>330.9872186756608</v>
@@ -7172,37 +7172,37 @@
         <v>81.0491890597045</v>
       </c>
       <c r="J38" t="n">
-        <v>268.3060941838183</v>
+        <v>268.3060941838185</v>
       </c>
       <c r="K38" t="n">
-        <v>920.5981303112517</v>
+        <v>920.5981303112519</v>
       </c>
       <c r="L38" t="n">
-        <v>1368.616105872003</v>
+        <v>1368.616105872004</v>
       </c>
       <c r="M38" t="n">
-        <v>1898.791864949625</v>
+        <v>1898.791864949626</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.160230469647</v>
+        <v>2442.160230469648</v>
       </c>
       <c r="O38" t="n">
-        <v>2941.912308669952</v>
+        <v>2941.912308669954</v>
       </c>
       <c r="P38" t="n">
-        <v>3652.518865471763</v>
+        <v>3652.518865471764</v>
       </c>
       <c r="Q38" t="n">
-        <v>3994.643018468391</v>
+        <v>3994.64301846839</v>
       </c>
       <c r="R38" t="n">
         <v>4052.459452985225</v>
       </c>
       <c r="S38" t="n">
-        <v>3989.569684865994</v>
+        <v>3989.569684865993</v>
       </c>
       <c r="T38" t="n">
-        <v>3831.351859818632</v>
+        <v>3831.351859818631</v>
       </c>
       <c r="U38" t="n">
         <v>3625.665113263701</v>
@@ -7211,13 +7211,13 @@
         <v>3342.447516209624</v>
       </c>
       <c r="W38" t="n">
-        <v>3037.524151229004</v>
+        <v>3037.524151229003</v>
       </c>
       <c r="X38" t="n">
         <v>2711.903683257417</v>
       </c>
       <c r="Y38" t="n">
-        <v>2369.609641571099</v>
+        <v>2369.609641571098</v>
       </c>
     </row>
     <row r="39">
@@ -7236,40 +7236,40 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E39" t="n">
-        <v>463.6984605033532</v>
+        <v>463.6984605033531</v>
       </c>
       <c r="F39" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G39" t="n">
-        <v>180.7903681521068</v>
+        <v>180.7903681521067</v>
       </c>
       <c r="H39" t="n">
-        <v>90.187701280894</v>
+        <v>90.18770128089399</v>
       </c>
       <c r="I39" t="n">
         <v>81.0491890597045</v>
       </c>
       <c r="J39" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K39" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L39" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N39" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O39" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.4741102496</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q39" t="n">
         <v>2563.810255212051</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.5833106163705</v>
+        <v>771.5833106163706</v>
       </c>
       <c r="C40" t="n">
-        <v>650.4924179779571</v>
+        <v>650.4924179779572</v>
       </c>
       <c r="D40" t="n">
-        <v>548.2210688551148</v>
+        <v>548.2210688551149</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1532655622152</v>
+        <v>448.1532655622153</v>
       </c>
       <c r="F40" t="n">
-        <v>349.1086083537983</v>
+        <v>349.1086083537984</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2423143262263</v>
+        <v>229.2423143262264</v>
       </c>
       <c r="H40" t="n">
         <v>130.7926429011665</v>
@@ -7330,7 +7330,7 @@
         <v>81.0491890597045</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4588361002116</v>
+        <v>172.4588361002117</v>
       </c>
       <c r="K40" t="n">
         <v>422.3430901478592</v>
@@ -7375,7 +7375,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.3864851571167</v>
+        <v>905.3864851571168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2030.85509179647</v>
+        <v>2030.855091796469</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.737865145552</v>
+        <v>1709.737865145551</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.317456828295</v>
+        <v>1399.317456828294</v>
       </c>
       <c r="E41" t="n">
         <v>1061.374494519544</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2338800194299</v>
+        <v>698.2338800194293</v>
       </c>
       <c r="G41" t="n">
         <v>330.9872186756608</v>
@@ -7409,22 +7409,22 @@
         <v>81.0491890597045</v>
       </c>
       <c r="J41" t="n">
-        <v>409.8607794917884</v>
+        <v>435.7117432041715</v>
       </c>
       <c r="K41" t="n">
-        <v>741.2488571737686</v>
+        <v>767.0998208861517</v>
       </c>
       <c r="L41" t="n">
-        <v>1189.26683273452</v>
+        <v>1215.117796446903</v>
       </c>
       <c r="M41" t="n">
-        <v>1719.442591812142</v>
+        <v>1745.293555524526</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.810957332164</v>
+        <v>2288.661921044548</v>
       </c>
       <c r="O41" t="n">
-        <v>2762.563035532469</v>
+        <v>2788.413999244854</v>
       </c>
       <c r="P41" t="n">
         <v>3473.16959233428</v>
@@ -7448,13 +7448,13 @@
         <v>3342.447516209623</v>
       </c>
       <c r="W41" t="n">
-        <v>3037.524151229003</v>
+        <v>3037.524151229002</v>
       </c>
       <c r="X41" t="n">
-        <v>2711.903683257417</v>
+        <v>2711.903683257416</v>
       </c>
       <c r="Y41" t="n">
-        <v>2369.609641571098</v>
+        <v>2369.609641571097</v>
       </c>
     </row>
     <row r="42">
@@ -7473,40 +7473,40 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E42" t="n">
-        <v>463.6984605033532</v>
+        <v>463.6984605033531</v>
       </c>
       <c r="F42" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G42" t="n">
-        <v>180.7903681521068</v>
+        <v>180.7903681521067</v>
       </c>
       <c r="H42" t="n">
-        <v>90.187701280894</v>
+        <v>90.18770128089399</v>
       </c>
       <c r="I42" t="n">
         <v>81.0491890597045</v>
       </c>
       <c r="J42" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K42" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L42" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M42" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N42" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O42" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.4741102496</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q42" t="n">
         <v>2563.810255212051</v>
@@ -7567,13 +7567,13 @@
         <v>81.0491890597045</v>
       </c>
       <c r="J43" t="n">
-        <v>172.4588361002116</v>
+        <v>172.4588361002117</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3430901478592</v>
+        <v>422.3430901478591</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5213952237261</v>
+        <v>784.521395223726</v>
       </c>
       <c r="M43" t="n">
         <v>1174.227657071498</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.85509179647</v>
+        <v>2030.855091796469</v>
       </c>
       <c r="C44" t="n">
         <v>1709.737865145551</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.317456828295</v>
+        <v>1399.317456828294</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.374494519544</v>
+        <v>1061.374494519543</v>
       </c>
       <c r="F44" t="n">
-        <v>698.2338800194298</v>
+        <v>698.2338800194291</v>
       </c>
       <c r="G44" t="n">
         <v>330.9872186756608</v>
@@ -7646,28 +7646,28 @@
         <v>81.0491890597045</v>
       </c>
       <c r="J44" t="n">
-        <v>435.7117432041714</v>
+        <v>435.7117432041715</v>
       </c>
       <c r="K44" t="n">
-        <v>806.3081128480212</v>
+        <v>767.0998208861517</v>
       </c>
       <c r="L44" t="n">
-        <v>1254.326088408773</v>
+        <v>1215.117796446903</v>
       </c>
       <c r="M44" t="n">
-        <v>1784.501847486395</v>
+        <v>1745.293555524526</v>
       </c>
       <c r="N44" t="n">
-        <v>2327.870213006417</v>
+        <v>2288.661921044548</v>
       </c>
       <c r="O44" t="n">
-        <v>2827.622291206722</v>
+        <v>2788.413999244854</v>
       </c>
       <c r="P44" t="n">
-        <v>3538.228848008532</v>
+        <v>3473.16959233428</v>
       </c>
       <c r="Q44" t="n">
-        <v>3994.64301846839</v>
+        <v>3929.583762794138</v>
       </c>
       <c r="R44" t="n">
         <v>4052.459452985225</v>
@@ -7679,16 +7679,16 @@
         <v>3831.351859818631</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.665113263701</v>
+        <v>3625.6651132637</v>
       </c>
       <c r="V44" t="n">
-        <v>3342.447516209624</v>
+        <v>3342.447516209623</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.524151229003</v>
+        <v>3037.524151229002</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.903683257417</v>
+        <v>2711.903683257416</v>
       </c>
       <c r="Y44" t="n">
         <v>2369.609641571098</v>
@@ -7710,43 +7710,43 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E45" t="n">
-        <v>463.6984605033532</v>
+        <v>463.6984605033531</v>
       </c>
       <c r="F45" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G45" t="n">
-        <v>180.7903681521068</v>
+        <v>180.7903681521067</v>
       </c>
       <c r="H45" t="n">
-        <v>90.187701280894</v>
+        <v>90.18770128089399</v>
       </c>
       <c r="I45" t="n">
         <v>81.0491890597045</v>
       </c>
       <c r="J45" t="n">
-        <v>179.8752603813619</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K45" t="n">
-        <v>416.4880925807739</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L45" t="n">
-        <v>780.9657864651535</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M45" t="n">
-        <v>1225.650932098295</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N45" t="n">
-        <v>1696.514215250146</v>
+        <v>1690.399226825192</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.04233352619</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.589098674554</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q45" t="n">
-        <v>2569.925243637005</v>
+        <v>2563.810255212051</v>
       </c>
       <c r="R45" t="n">
         <v>2569.925243637005</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>157.4367714371534</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>6.176755984801389</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.176755984802099</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7842678580397546</v>
+        <v>0.7842678580397262</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>130.2187135766177</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>217.204386703047</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.176755984800778</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.176755984802099</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7842678580397546</v>
+        <v>0.7842678580396694</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>217.204386703047</v>
+        <v>217.204386703044</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.176755984800778</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.961023842841709</v>
+        <v>0.7842678580396694</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>217.204386703047</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>107.720669191467</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.961023842841709</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>295.6866236135191</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>39.60433531501766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.961023842841709</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>305.4677249064951</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>293.3011158256488</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.176755984801872</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.176755984800593</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7842678580397546</v>
+        <v>0.7842678580396694</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.4631862115194</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>366.0603825421809</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.176755984801815</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7842678580397546</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>305.4677249064965</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>206.3542460874094</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.961023842841709</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>295.6866236135191</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>39.60433531501812</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>6.176755984801957</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.7842678580397546</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>96.87052857583384</v>
+        <v>96.87052857583186</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.961023842841709</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>142.9845306141112</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>295.6866236135185</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.961023842841709</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>39.6043353150198</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>295.6866236135185</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.1767559848019</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7842678580397546</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>329.0018744289647</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8054867063952</v>
       </c>
       <c r="I11" t="n">
-        <v>42.32124220608898</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>108.4953759252109</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.0024841834868</v>
       </c>
       <c r="U11" t="n">
         <v>250.9967164759801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0344684738949</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8320120974078</v>
       </c>
       <c r="I13" t="n">
-        <v>96.61285668964589</v>
+        <v>20.74354293222807</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9199492577997</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.75539833264457</v>
+        <v>219.5859520124176</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2123105809692</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50.23923391733439</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>406.6991132777342</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.07932336689353</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>323.5103396309395</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>344.9990498782176</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>273.9701867818657</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>175.5900613427419</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.0049022594325</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>144.373554179017</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>142.1920438073738</v>
       </c>
       <c r="F16" t="n">
-        <v>141.1791291837358</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161.7925496346994</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.5900932582124</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.67938772226997</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.07962858294664</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>215.3440331732222</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>281.9703917417739</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>221.4677365498417</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>121.0016047745905</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>76.92044039595505</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>76.92044039595402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>76.92044039595439</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>76.92044039595466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.1307386614909</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>101.1307386614885</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908316.2950679284</v>
+        <v>908316.2950679287</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547414</v>
+        <v>348192.4439547413</v>
       </c>
       <c r="C2" t="n">
         <v>348192.4439547413</v>
@@ -26323,25 +26323,25 @@
         <v>288929.3132817562</v>
       </c>
       <c r="F2" t="n">
-        <v>314140.5341691319</v>
+        <v>314140.5341691318</v>
       </c>
       <c r="G2" t="n">
-        <v>346340.5336937253</v>
+        <v>346340.5336937252</v>
       </c>
       <c r="H2" t="n">
-        <v>346340.5336937253</v>
+        <v>346340.5336937252</v>
       </c>
       <c r="I2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="J2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="K2" t="n">
         <v>347911.2186579733</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923203</v>
@@ -26350,10 +26350,10 @@
         <v>348942.7521923205</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
     </row>
     <row r="3">
@@ -26375,31 +26375,31 @@
         <v>1113583.476290656</v>
       </c>
       <c r="F3" t="n">
-        <v>51466.24520136666</v>
+        <v>51466.24520136652</v>
       </c>
       <c r="G3" t="n">
-        <v>34499.93483792253</v>
+        <v>34499.93483792252</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>5270.758717411979</v>
+        <v>5270.758717412039</v>
       </c>
       <c r="J3" t="n">
-        <v>1.18981915875338e-10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>3938.434948795219</v>
       </c>
       <c r="L3" t="n">
-        <v>37893.46990927888</v>
+        <v>37893.46990927882</v>
       </c>
       <c r="M3" t="n">
-        <v>201908.4520495692</v>
+        <v>201908.4520495693</v>
       </c>
       <c r="N3" t="n">
-        <v>41093.3202362545</v>
+        <v>41093.32023625435</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
-        <v>8154.202556898436</v>
+        <v>8154.202556898426</v>
       </c>
       <c r="F4" t="n">
-        <v>28384.43479871078</v>
+        <v>28384.43479871064</v>
       </c>
       <c r="G4" t="n">
-        <v>71734.89999948899</v>
+        <v>71734.89999948884</v>
       </c>
       <c r="H4" t="n">
-        <v>71734.89999948896</v>
+        <v>71734.8999994889</v>
       </c>
       <c r="I4" t="n">
+        <v>73618.42659599811</v>
+      </c>
+      <c r="J4" t="n">
+        <v>73618.42659599811</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70978.68442999982</v>
+      </c>
+      <c r="L4" t="n">
         <v>73618.42659599813</v>
       </c>
-      <c r="J4" t="n">
-        <v>73618.42659599817</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70978.68442999979</v>
-      </c>
-      <c r="L4" t="n">
-        <v>73618.42659599816</v>
-      </c>
       <c r="M4" t="n">
-        <v>73618.42659599819</v>
+        <v>73618.4265959981</v>
       </c>
       <c r="N4" t="n">
-        <v>73618.42659599817</v>
+        <v>73618.42659599811</v>
       </c>
       <c r="O4" t="n">
-        <v>73618.42659599816</v>
+        <v>73618.42659599811</v>
       </c>
       <c r="P4" t="n">
-        <v>73618.42659599816</v>
+        <v>73618.42659599811</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>73843.82689579573</v>
+        <v>73843.82689579576</v>
       </c>
       <c r="F5" t="n">
         <v>84401.33275223468</v>
       </c>
       <c r="G5" t="n">
-        <v>88026.80152959633</v>
+        <v>88026.80152959631</v>
       </c>
       <c r="H5" t="n">
         <v>88026.80152959631</v>
@@ -26494,13 +26494,13 @@
         <v>89231.90428574817</v>
       </c>
       <c r="K5" t="n">
-        <v>89805.69685177604</v>
+        <v>89805.69685177605</v>
       </c>
       <c r="L5" t="n">
         <v>89231.90428574815</v>
       </c>
       <c r="M5" t="n">
-        <v>89231.90428574814</v>
+        <v>89231.90428574815</v>
       </c>
       <c r="N5" t="n">
         <v>89231.90428574815</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94832.18438164514</v>
+        <v>-94836.59795951331</v>
       </c>
       <c r="C6" t="n">
-        <v>-94832.1843816452</v>
+        <v>-94836.59795951331</v>
       </c>
       <c r="D6" t="n">
         <v>-98491.82439264926</v>
       </c>
       <c r="E6" t="n">
-        <v>-906652.1924615944</v>
+        <v>-907005.2126904803</v>
       </c>
       <c r="F6" t="n">
-        <v>149888.5214168198</v>
+        <v>149683.8024872718</v>
       </c>
       <c r="G6" t="n">
-        <v>152078.8973267175</v>
+        <v>152063.5901590787</v>
       </c>
       <c r="H6" t="n">
-        <v>186578.83216464</v>
+        <v>186563.5249970012</v>
       </c>
       <c r="I6" t="n">
-        <v>180821.6625931622</v>
+        <v>180821.662593162</v>
       </c>
       <c r="J6" t="n">
         <v>186092.421310574</v>
       </c>
       <c r="K6" t="n">
-        <v>183188.4024274023</v>
+        <v>183182.3345830825</v>
       </c>
       <c r="L6" t="n">
-        <v>148198.9514012952</v>
+        <v>148198.9514012953</v>
       </c>
       <c r="M6" t="n">
-        <v>-15816.03073899519</v>
+        <v>-15816.03073899524</v>
       </c>
       <c r="N6" t="n">
-        <v>144999.1010743197</v>
+        <v>144999.1010743199</v>
       </c>
       <c r="O6" t="n">
-        <v>186092.4213105741</v>
+        <v>186092.421310574</v>
       </c>
       <c r="P6" t="n">
         <v>186092.421310574</v>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G2" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="H2" t="n">
         <v>47.36683738659856</v>
@@ -26710,16 +26710,16 @@
         <v>47.36683738659856</v>
       </c>
       <c r="K2" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="L2" t="n">
+        <v>47.36683738659858</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.36683738659854</v>
+      </c>
+      <c r="N2" t="n">
         <v>47.36683738659855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.36683738659859</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.36683738659856</v>
       </c>
       <c r="O2" t="n">
         <v>47.36683738659855</v>
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>825.5162655867921</v>
+        <v>825.5162655867923</v>
       </c>
       <c r="F4" t="n">
-        <v>993.294094230651</v>
+        <v>993.2940942306509</v>
       </c>
       <c r="G4" t="n">
-        <v>993.294094230651</v>
+        <v>993.2940942306509</v>
       </c>
       <c r="H4" t="n">
-        <v>993.294094230651</v>
+        <v>993.2940942306509</v>
       </c>
       <c r="I4" t="n">
         <v>1013.114863246306</v>
@@ -26917,13 +26917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G2" t="n">
-        <v>43.12491854740317</v>
+        <v>43.12491854740315</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.3668373865986</v>
+        <v>47.36683738659853</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>810.213528071657</v>
+        <v>810.2135280716573</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7778286438589</v>
+        <v>167.7778286438586</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.82076901565495</v>
+        <v>19.82076901565517</v>
       </c>
       <c r="J4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>15.30273751513482</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>810.2135280716568</v>
+        <v>810.2135280716573</v>
       </c>
       <c r="N4" t="n">
-        <v>167.7778286438593</v>
+        <v>167.7778286438586</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="L2" t="n">
-        <v>43.12491854740317</v>
+        <v>43.12491854740315</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>810.213528071657</v>
+        <v>810.2135280716573</v>
       </c>
       <c r="N4" t="n">
-        <v>167.7778286438589</v>
+        <v>167.7778286438586</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.4314916216989</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.027717791841</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>122.0407796480756</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>99.50338435942338</v>
       </c>
       <c r="I9" t="n">
         <v>74.09389533628003</v>
@@ -27980,7 +27980,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.1183105077962</v>
+        <v>134.6638375547068</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I10" t="n">
-        <v>144.6932644590339</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
         <v>6.966754310747802</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="C14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="D14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="E14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="H14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="I14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="T14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="U14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="V14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="W14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="X14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="C16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="D16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="E16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="H16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="I16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="J16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="K16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="L16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="M16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="N16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="O16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="P16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="R16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="S16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="T16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="U16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="V16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="W16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="X16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.241918839195421</v>
+        <v>4.241918839195364</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="C17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="D17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="E17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="F17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="G17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="H17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="I17" t="n">
-        <v>42.32124220608898</v>
+        <v>42.3212422060889</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="T17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="U17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="V17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="W17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="X17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="C19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="D19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="E19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="F19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="G19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="H19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="I19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="J19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="K19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="L19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="M19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="N19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="O19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="P19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="R19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="S19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="T19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="U19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="V19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="W19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="X19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659851</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>47.36683738659856</v>
       </c>
       <c r="I20" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>47.36683738659856</v>
       </c>
       <c r="J22" t="n">
-        <v>47.3668373865986</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="K22" t="n">
         <v>47.36683738659856</v>
@@ -29056,7 +29056,7 @@
         <v>47.36683738659856</v>
       </c>
       <c r="I23" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>47.36683738659856</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659835</v>
       </c>
       <c r="L25" t="n">
         <v>47.36683738659856</v>
@@ -29293,7 +29293,7 @@
         <v>47.36683738659856</v>
       </c>
       <c r="I26" t="n">
-        <v>42.32124220608898</v>
+        <v>42.3212422060889</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="C29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="D29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="E29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="F29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="G29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="H29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="I29" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="T29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="U29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="V29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="W29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="X29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="Y29" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="C31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="D31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="E31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="F31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="G31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="H31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="I31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="J31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="K31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="L31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="M31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="N31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="O31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="P31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="R31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="S31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="T31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="U31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="V31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="W31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="X31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.12491854740312</v>
+        <v>43.1249185474032</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="C32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="D32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="E32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="F32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="G32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="H32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="I32" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="T32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="U32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="V32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="W32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="X32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="C34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="D34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="E34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="F34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="G34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="H34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="I34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="J34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="K34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="L34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="M34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="N34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="O34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="P34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="R34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="S34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="T34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="U34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="V34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="W34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="X34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659858</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I35" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="J37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="K37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="L37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="N37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="O37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="P37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="R37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="S37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I38" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="J40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="K40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="L40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="M40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="N40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="O40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="P40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659835</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="R40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="S40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.36683738659856</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>47.36683738659855</v>
       </c>
       <c r="I41" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>47.36683738659855</v>
       </c>
       <c r="K43" t="n">
-        <v>47.3668373865986</v>
+        <v>47.36683738659841</v>
       </c>
       <c r="L43" t="n">
         <v>47.36683738659855</v>
@@ -30715,7 +30715,7 @@
         <v>47.36683738659855</v>
       </c>
       <c r="I44" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>47.36683738659855</v>
       </c>
       <c r="M46" t="n">
-        <v>47.36683738659855</v>
+        <v>47.36683738659843</v>
       </c>
       <c r="N46" t="n">
         <v>47.36683738659855</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H11" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I11" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J11" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K11" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L11" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M11" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N11" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O11" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P11" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R11" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S11" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T11" t="n">
         <v>19.0933653806445</v>
@@ -31832,34 +31832,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H12" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I12" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J12" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K12" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L12" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M12" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N12" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O12" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P12" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q12" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R12" t="n">
         <v>144.8952361059242</v>
@@ -31868,7 +31868,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T12" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U12" t="n">
         <v>0.1535340874250398</v>
@@ -31911,43 +31911,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H13" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I13" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J13" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K13" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L13" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M13" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N13" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O13" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P13" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q13" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R13" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S13" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T13" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U13" t="n">
         <v>0.1067187755216671</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205482</v>
       </c>
       <c r="H14" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I14" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J14" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409429</v>
       </c>
       <c r="K14" t="n">
-        <v>554.8252830469808</v>
+        <v>554.825283046981</v>
       </c>
       <c r="L14" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273122</v>
       </c>
       <c r="M14" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026489</v>
       </c>
       <c r="N14" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653003</v>
       </c>
       <c r="O14" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118944</v>
       </c>
       <c r="P14" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936965</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R14" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S14" t="n">
-        <v>99.39236176160748</v>
+        <v>99.39236176160752</v>
       </c>
       <c r="T14" t="n">
-        <v>19.0933653806445</v>
+        <v>19.09336538064451</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3489364318564384</v>
+        <v>0.3489364318564385</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.333718128860604</v>
+        <v>2.333718128860605</v>
       </c>
       <c r="H15" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399585</v>
       </c>
       <c r="I15" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243749</v>
       </c>
       <c r="J15" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K15" t="n">
-        <v>376.8442997818458</v>
+        <v>376.844299781846</v>
       </c>
       <c r="L15" t="n">
-        <v>506.7136665317728</v>
+        <v>506.713666531773</v>
       </c>
       <c r="M15" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029698</v>
       </c>
       <c r="N15" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144956</v>
       </c>
       <c r="O15" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697422</v>
       </c>
       <c r="P15" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540922</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R15" t="n">
-        <v>144.8952361059242</v>
+        <v>144.8952361059243</v>
       </c>
       <c r="S15" t="n">
-        <v>43.34779068300286</v>
+        <v>43.34779068300287</v>
       </c>
       <c r="T15" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240767</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1535340874250398</v>
+        <v>0.1535340874250399</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.956510884563894</v>
+        <v>1.956510884563895</v>
       </c>
       <c r="H16" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I16" t="n">
-        <v>58.83761823761239</v>
+        <v>58.83761823761242</v>
       </c>
       <c r="J16" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K16" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L16" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468904</v>
       </c>
       <c r="M16" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N16" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O16" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018132</v>
       </c>
       <c r="P16" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.8311068883457</v>
+        <v>163.8311068883458</v>
       </c>
       <c r="R16" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502747</v>
       </c>
       <c r="S16" t="n">
-        <v>34.09664877917258</v>
+        <v>34.09664877917259</v>
       </c>
       <c r="T16" t="n">
-        <v>8.359637415863908</v>
+        <v>8.359637415863912</v>
       </c>
       <c r="U16" t="n">
         <v>0.1067187755216671</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205482</v>
       </c>
       <c r="H17" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I17" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J17" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409429</v>
       </c>
       <c r="K17" t="n">
-        <v>554.8252830469808</v>
+        <v>554.825283046981</v>
       </c>
       <c r="L17" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273122</v>
       </c>
       <c r="M17" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026489</v>
       </c>
       <c r="N17" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653003</v>
       </c>
       <c r="O17" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118944</v>
       </c>
       <c r="P17" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936965</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R17" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S17" t="n">
-        <v>99.39236176160748</v>
+        <v>99.39236176160752</v>
       </c>
       <c r="T17" t="n">
-        <v>19.0933653806445</v>
+        <v>19.09336538064451</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3489364318564384</v>
+        <v>0.3489364318564385</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.333718128860604</v>
+        <v>2.333718128860605</v>
       </c>
       <c r="H18" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399585</v>
       </c>
       <c r="I18" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243749</v>
       </c>
       <c r="J18" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K18" t="n">
-        <v>376.8442997818458</v>
+        <v>376.844299781846</v>
       </c>
       <c r="L18" t="n">
-        <v>506.7136665317728</v>
+        <v>506.713666531773</v>
       </c>
       <c r="M18" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029698</v>
       </c>
       <c r="N18" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144956</v>
       </c>
       <c r="O18" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697422</v>
       </c>
       <c r="P18" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540922</v>
       </c>
       <c r="Q18" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R18" t="n">
-        <v>144.8952361059242</v>
+        <v>144.8952361059243</v>
       </c>
       <c r="S18" t="n">
-        <v>43.34779068300286</v>
+        <v>43.34779068300287</v>
       </c>
       <c r="T18" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240767</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1535340874250398</v>
+        <v>0.1535340874250399</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.956510884563894</v>
+        <v>1.956510884563895</v>
       </c>
       <c r="H19" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I19" t="n">
-        <v>58.83761823761239</v>
+        <v>58.83761823761242</v>
       </c>
       <c r="J19" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K19" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L19" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468904</v>
       </c>
       <c r="M19" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N19" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O19" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018132</v>
       </c>
       <c r="P19" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.8311068883457</v>
+        <v>163.8311068883458</v>
       </c>
       <c r="R19" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502747</v>
       </c>
       <c r="S19" t="n">
-        <v>34.09664877917258</v>
+        <v>34.09664877917259</v>
       </c>
       <c r="T19" t="n">
-        <v>8.359637415863908</v>
+        <v>8.359637415863912</v>
       </c>
       <c r="U19" t="n">
         <v>0.1067187755216671</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H20" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I20" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J20" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K20" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L20" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M20" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N20" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O20" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P20" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R20" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S20" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T20" t="n">
         <v>19.0933653806445</v>
@@ -32543,34 +32543,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H21" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I21" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J21" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K21" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L21" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M21" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N21" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O21" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P21" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R21" t="n">
         <v>144.8952361059242</v>
@@ -32579,7 +32579,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T21" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U21" t="n">
         <v>0.1535340874250398</v>
@@ -32622,43 +32622,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H22" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I22" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J22" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K22" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L22" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M22" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N22" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O22" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P22" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q22" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R22" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S22" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T22" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U22" t="n">
         <v>0.1067187755216671</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H23" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I23" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J23" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K23" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L23" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M23" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N23" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O23" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P23" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R23" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S23" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T23" t="n">
         <v>19.0933653806445</v>
@@ -32780,34 +32780,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H24" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I24" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J24" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K24" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L24" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M24" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N24" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O24" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P24" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q24" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R24" t="n">
         <v>144.8952361059242</v>
@@ -32816,7 +32816,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T24" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U24" t="n">
         <v>0.1535340874250398</v>
@@ -32859,43 +32859,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H25" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I25" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J25" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K25" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L25" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M25" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N25" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O25" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P25" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q25" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R25" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S25" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T25" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U25" t="n">
         <v>0.1067187755216671</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205482</v>
       </c>
       <c r="H26" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I26" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J26" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409429</v>
       </c>
       <c r="K26" t="n">
-        <v>554.8252830469808</v>
+        <v>554.825283046981</v>
       </c>
       <c r="L26" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273122</v>
       </c>
       <c r="M26" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026489</v>
       </c>
       <c r="N26" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653003</v>
       </c>
       <c r="O26" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118944</v>
       </c>
       <c r="P26" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936965</v>
       </c>
       <c r="Q26" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R26" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S26" t="n">
-        <v>99.39236176160748</v>
+        <v>99.39236176160752</v>
       </c>
       <c r="T26" t="n">
-        <v>19.0933653806445</v>
+        <v>19.09336538064451</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3489364318564384</v>
+        <v>0.3489364318564385</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.333718128860604</v>
+        <v>2.333718128860605</v>
       </c>
       <c r="H27" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399585</v>
       </c>
       <c r="I27" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243749</v>
       </c>
       <c r="J27" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K27" t="n">
-        <v>376.8442997818458</v>
+        <v>376.844299781846</v>
       </c>
       <c r="L27" t="n">
-        <v>506.7136665317728</v>
+        <v>506.713666531773</v>
       </c>
       <c r="M27" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029698</v>
       </c>
       <c r="N27" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144956</v>
       </c>
       <c r="O27" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697422</v>
       </c>
       <c r="P27" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540922</v>
       </c>
       <c r="Q27" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R27" t="n">
-        <v>144.8952361059242</v>
+        <v>144.8952361059243</v>
       </c>
       <c r="S27" t="n">
-        <v>43.34779068300286</v>
+        <v>43.34779068300287</v>
       </c>
       <c r="T27" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240767</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1535340874250398</v>
+        <v>0.1535340874250399</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.956510884563894</v>
+        <v>1.956510884563895</v>
       </c>
       <c r="H28" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I28" t="n">
-        <v>58.83761823761239</v>
+        <v>58.83761823761242</v>
       </c>
       <c r="J28" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K28" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L28" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468904</v>
       </c>
       <c r="M28" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O28" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018132</v>
       </c>
       <c r="P28" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.8311068883457</v>
+        <v>163.8311068883458</v>
       </c>
       <c r="R28" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502747</v>
       </c>
       <c r="S28" t="n">
-        <v>34.09664877917258</v>
+        <v>34.09664877917259</v>
       </c>
       <c r="T28" t="n">
-        <v>8.359637415863908</v>
+        <v>8.359637415863912</v>
       </c>
       <c r="U28" t="n">
         <v>0.1067187755216671</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H29" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I29" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J29" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K29" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L29" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M29" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N29" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O29" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P29" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q29" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R29" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S29" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T29" t="n">
         <v>19.0933653806445</v>
@@ -33254,34 +33254,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H30" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I30" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J30" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K30" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L30" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M30" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N30" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O30" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P30" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q30" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R30" t="n">
         <v>144.8952361059242</v>
@@ -33290,7 +33290,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T30" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U30" t="n">
         <v>0.1535340874250398</v>
@@ -33333,43 +33333,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H31" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I31" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J31" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K31" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L31" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M31" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O31" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P31" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q31" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R31" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S31" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T31" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U31" t="n">
         <v>0.1067187755216671</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H32" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I32" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J32" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K32" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L32" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M32" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N32" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O32" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P32" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R32" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S32" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T32" t="n">
         <v>19.0933653806445</v>
@@ -33491,34 +33491,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H33" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I33" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J33" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K33" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L33" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M33" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N33" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O33" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P33" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R33" t="n">
         <v>144.8952361059242</v>
@@ -33527,7 +33527,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T33" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U33" t="n">
         <v>0.1535340874250398</v>
@@ -33570,43 +33570,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H34" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I34" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J34" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K34" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L34" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M34" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O34" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P34" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q34" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R34" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S34" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T34" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U34" t="n">
         <v>0.1067187755216671</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H35" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I35" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J35" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K35" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L35" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M35" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N35" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O35" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P35" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q35" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R35" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S35" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T35" t="n">
         <v>19.0933653806445</v>
@@ -33728,34 +33728,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H36" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I36" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J36" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K36" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L36" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M36" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N36" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O36" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P36" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q36" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R36" t="n">
         <v>144.8952361059242</v>
@@ -33764,7 +33764,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T36" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U36" t="n">
         <v>0.1535340874250398</v>
@@ -33807,43 +33807,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H37" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I37" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J37" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K37" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L37" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M37" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O37" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P37" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q37" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R37" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S37" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T37" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U37" t="n">
         <v>0.1067187755216671</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H38" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I38" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J38" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K38" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L38" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M38" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N38" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O38" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P38" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q38" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R38" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S38" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T38" t="n">
         <v>19.0933653806445</v>
@@ -33965,34 +33965,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H39" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I39" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J39" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K39" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L39" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M39" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N39" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O39" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P39" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q39" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R39" t="n">
         <v>144.8952361059242</v>
@@ -34001,7 +34001,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T39" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U39" t="n">
         <v>0.1535340874250398</v>
@@ -34044,43 +34044,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H40" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I40" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J40" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K40" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L40" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M40" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O40" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P40" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q40" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R40" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S40" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T40" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U40" t="n">
         <v>0.1067187755216671</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H41" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I41" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J41" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K41" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L41" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M41" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N41" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O41" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P41" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q41" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R41" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S41" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T41" t="n">
         <v>19.0933653806445</v>
@@ -34202,34 +34202,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H42" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I42" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J42" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K42" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L42" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M42" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N42" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O42" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P42" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q42" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R42" t="n">
         <v>144.8952361059242</v>
@@ -34238,7 +34238,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T42" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U42" t="n">
         <v>0.1535340874250398</v>
@@ -34281,43 +34281,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H43" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I43" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J43" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K43" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L43" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M43" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N43" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O43" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P43" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q43" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R43" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S43" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T43" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U43" t="n">
         <v>0.1067187755216671</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H44" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I44" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J44" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K44" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L44" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M44" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N44" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O44" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P44" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q44" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R44" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S44" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T44" t="n">
         <v>19.0933653806445</v>
@@ -34439,34 +34439,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H45" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I45" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J45" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K45" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L45" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M45" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N45" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O45" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P45" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q45" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R45" t="n">
         <v>144.8952361059242</v>
@@ -34475,7 +34475,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T45" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U45" t="n">
         <v>0.1535340874250398</v>
@@ -34518,43 +34518,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H46" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I46" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J46" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K46" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L46" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M46" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N46" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O46" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P46" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q46" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R46" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S46" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T46" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U46" t="n">
         <v>0.1067187755216671</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O8" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>15.30273751513505</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.1483890142564</v>
+        <v>189.1483890142565</v>
       </c>
       <c r="K11" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L11" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M11" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N11" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P11" t="n">
-        <v>395.9856926384268</v>
+        <v>395.9856926384269</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.7094239460129</v>
+        <v>248.709423946013</v>
       </c>
       <c r="R11" t="n">
-        <v>58.40043890589311</v>
+        <v>58.40043890589317</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K12" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L12" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M12" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N12" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O12" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6633991397617</v>
+        <v>317.8401551245632</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.092053926671</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.96613942199451</v>
+        <v>44.96613942199454</v>
       </c>
       <c r="K13" t="n">
         <v>205.0415000352677</v>
       </c>
       <c r="L13" t="n">
-        <v>318.4698344072063</v>
+        <v>318.4698344072065</v>
       </c>
       <c r="M13" t="n">
         <v>346.2758513485244</v>
       </c>
       <c r="N13" t="n">
-        <v>343.5316971052654</v>
+        <v>343.5316971052655</v>
       </c>
       <c r="O13" t="n">
-        <v>301.1290482158527</v>
+        <v>301.1290482158528</v>
       </c>
       <c r="P13" t="n">
-        <v>233.9096575216029</v>
+        <v>233.909657521603</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.66906363665133</v>
+        <v>77.66906363665136</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.2450041863302</v>
+        <v>319.3671025908743</v>
       </c>
       <c r="K14" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020004</v>
       </c>
       <c r="L14" t="n">
-        <v>452.5434096573246</v>
+        <v>452.543409657325</v>
       </c>
       <c r="M14" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753762</v>
       </c>
       <c r="N14" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687095</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902077</v>
       </c>
       <c r="P14" t="n">
-        <v>613.1900793414737</v>
+        <v>717.7844008099096</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R14" t="n">
-        <v>124.1168587788756</v>
+        <v>58.40043890589322</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.64755848151873</v>
+        <v>99.82431446631959</v>
       </c>
       <c r="K15" t="n">
-        <v>239.0028608074869</v>
+        <v>239.002860807487</v>
       </c>
       <c r="L15" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518988</v>
       </c>
       <c r="M15" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809514</v>
       </c>
       <c r="N15" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311624</v>
       </c>
       <c r="O15" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252978</v>
       </c>
       <c r="P15" t="n">
-        <v>311.6633991397617</v>
+        <v>311.663399139762</v>
       </c>
       <c r="Q15" t="n">
-        <v>164.092053926671</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>322.7117532464018</v>
       </c>
       <c r="M16" t="n">
-        <v>350.5177701877198</v>
+        <v>350.5177701877199</v>
       </c>
       <c r="N16" t="n">
         <v>347.7736159444609</v>
       </c>
       <c r="O16" t="n">
-        <v>305.3709670550481</v>
+        <v>305.3709670550482</v>
       </c>
       <c r="P16" t="n">
         <v>238.1515763607983</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.2450041863302</v>
+        <v>358.2450041863303</v>
       </c>
       <c r="K17" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020004</v>
       </c>
       <c r="L17" t="n">
-        <v>452.5434096573246</v>
+        <v>452.543409657325</v>
       </c>
       <c r="M17" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753762</v>
       </c>
       <c r="N17" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687095</v>
       </c>
       <c r="O17" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902077</v>
       </c>
       <c r="P17" t="n">
-        <v>613.1900793414737</v>
+        <v>613.190079341471</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R17" t="n">
-        <v>124.1168587788756</v>
+        <v>124.1168587788757</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.64755848151873</v>
+        <v>99.82431446631959</v>
       </c>
       <c r="K18" t="n">
-        <v>239.0028608074869</v>
+        <v>239.002860807487</v>
       </c>
       <c r="L18" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518988</v>
       </c>
       <c r="M18" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809514</v>
       </c>
       <c r="N18" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311624</v>
       </c>
       <c r="O18" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252978</v>
       </c>
       <c r="P18" t="n">
-        <v>311.6633991397617</v>
+        <v>311.663399139762</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R18" t="n">
-        <v>6.176755984801955</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.3329768085931</v>
+        <v>92.33297680859309</v>
       </c>
       <c r="K19" t="n">
         <v>252.4083374218663</v>
@@ -36054,7 +36054,7 @@
         <v>390.898534491864</v>
       </c>
       <c r="O19" t="n">
-        <v>348.4958856024513</v>
+        <v>348.4958856024514</v>
       </c>
       <c r="P19" t="n">
         <v>281.2764949082015</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.2450041863302</v>
+        <v>358.2450041863303</v>
       </c>
       <c r="K20" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L20" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M20" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N20" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O20" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P20" t="n">
-        <v>613.1900793414737</v>
+        <v>717.7844008099096</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.0244146059176</v>
+        <v>356.43009313748</v>
       </c>
       <c r="R20" t="n">
         <v>124.1168587788756</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K21" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L21" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M21" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N21" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O21" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R21" t="n">
-        <v>6.176755984801955</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33297680859312</v>
+        <v>92.3329768085931</v>
       </c>
       <c r="K22" t="n">
-        <v>252.4083374218662</v>
+        <v>252.4083374218663</v>
       </c>
       <c r="L22" t="n">
         <v>365.836671793805</v>
       </c>
       <c r="M22" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N22" t="n">
         <v>390.898534491864</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>358.2450041863302</v>
+        <v>358.2450041863303</v>
       </c>
       <c r="K23" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L23" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M23" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N23" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O23" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P23" t="n">
-        <v>691.6723162519459</v>
+        <v>717.7844008099096</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R23" t="n">
-        <v>124.1168587788756</v>
+        <v>98.00477422091083</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K24" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L24" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M24" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N24" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O24" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P24" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R24" t="n">
-        <v>6.176755984801955</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33297680859307</v>
+        <v>92.3329768085931</v>
       </c>
       <c r="K25" t="n">
-        <v>252.4083374218662</v>
+        <v>252.4083374218661</v>
       </c>
       <c r="L25" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M25" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N25" t="n">
         <v>390.898534491864</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.1483890142564</v>
+        <v>189.1483890142566</v>
       </c>
       <c r="K26" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020004</v>
       </c>
       <c r="L26" t="n">
-        <v>452.5434096573246</v>
+        <v>452.543409657325</v>
       </c>
       <c r="M26" t="n">
-        <v>985.0446032682083</v>
+        <v>840.9987946818712</v>
       </c>
       <c r="N26" t="n">
-        <v>548.856934868709</v>
+        <v>986.2038592806936</v>
       </c>
       <c r="O26" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902077</v>
       </c>
       <c r="P26" t="n">
-        <v>689.2868084640755</v>
+        <v>395.985692638427</v>
       </c>
       <c r="Q26" t="n">
-        <v>248.7094239460129</v>
+        <v>248.7094239460131</v>
       </c>
       <c r="R26" t="n">
-        <v>58.40043890589311</v>
+        <v>58.40043890589322</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151881</v>
       </c>
       <c r="K27" t="n">
-        <v>245.1796167922887</v>
+        <v>239.002860807487</v>
       </c>
       <c r="L27" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518988</v>
       </c>
       <c r="M27" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809514</v>
       </c>
       <c r="N27" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311624</v>
       </c>
       <c r="O27" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252978</v>
       </c>
       <c r="P27" t="n">
-        <v>311.6633991397617</v>
+        <v>311.663399139762</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.9152979418689</v>
+        <v>164.0920539266696</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.33297680859307</v>
+        <v>92.33297680859313</v>
       </c>
       <c r="K28" t="n">
-        <v>252.4083374218662</v>
+        <v>252.4083374218663</v>
       </c>
       <c r="L28" t="n">
-        <v>365.8366717938049</v>
+        <v>365.8366717938051</v>
       </c>
       <c r="M28" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N28" t="n">
-        <v>390.8985344918639</v>
+        <v>390.8985344918641</v>
       </c>
       <c r="O28" t="n">
-        <v>348.4958856024513</v>
+        <v>348.4958856024514</v>
       </c>
       <c r="P28" t="n">
         <v>281.2764949082015</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>346.6115752257758</v>
+        <v>189.1483890142565</v>
       </c>
       <c r="K29" t="n">
-        <v>658.8808445731649</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L29" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M29" t="n">
-        <v>535.5310697753758</v>
+        <v>901.591452317557</v>
       </c>
       <c r="N29" t="n">
-        <v>548.856934868709</v>
+        <v>986.2038592806933</v>
       </c>
       <c r="O29" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P29" t="n">
-        <v>717.7844008099094</v>
+        <v>395.9856926384269</v>
       </c>
       <c r="Q29" t="n">
-        <v>248.7094239460129</v>
+        <v>248.709423946013</v>
       </c>
       <c r="R29" t="n">
-        <v>58.40043890589311</v>
+        <v>58.40043890589317</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>99.82431446632054</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K30" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L30" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M30" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N30" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O30" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P30" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q30" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.09105796939764</v>
+        <v>88.09105796939774</v>
       </c>
       <c r="K31" t="n">
-        <v>248.1664185826708</v>
+        <v>248.1664185826709</v>
       </c>
       <c r="L31" t="n">
-        <v>361.5947529546095</v>
+        <v>361.5947529546096</v>
       </c>
       <c r="M31" t="n">
-        <v>389.4007698959275</v>
+        <v>389.4007698959276</v>
       </c>
       <c r="N31" t="n">
-        <v>386.6566156526685</v>
+        <v>386.6566156526687</v>
       </c>
       <c r="O31" t="n">
-        <v>344.2539667632558</v>
+        <v>344.253966763256</v>
       </c>
       <c r="P31" t="n">
-        <v>277.034576069006</v>
+        <v>277.0345760690062</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.7939821840544</v>
+        <v>120.7939821840546</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.1483890142564</v>
+        <v>189.1483890142565</v>
       </c>
       <c r="K32" t="n">
-        <v>640.2031569084967</v>
+        <v>658.8808445731651</v>
       </c>
       <c r="L32" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M32" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N32" t="n">
-        <v>986.2038592806932</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O32" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P32" t="n">
-        <v>395.9856926384268</v>
+        <v>602.3399387258363</v>
       </c>
       <c r="Q32" t="n">
-        <v>248.7094239460129</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R32" t="n">
-        <v>58.40043890589311</v>
+        <v>58.40043890589317</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K33" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L33" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M33" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O33" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P33" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R33" t="n">
-        <v>6.176755984801955</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.33297680859306</v>
+        <v>92.33297680859312</v>
       </c>
       <c r="K34" t="n">
-        <v>252.4083374218662</v>
+        <v>252.4083374218663</v>
       </c>
       <c r="L34" t="n">
         <v>365.836671793805</v>
       </c>
       <c r="M34" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N34" t="n">
         <v>390.898534491864</v>
       </c>
       <c r="O34" t="n">
-        <v>348.4958856024513</v>
+        <v>348.4958856024514</v>
       </c>
       <c r="P34" t="n">
         <v>281.2764949082015</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.2450041863302</v>
+        <v>358.2450041863303</v>
       </c>
       <c r="K35" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L35" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M35" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N35" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O35" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P35" t="n">
-        <v>691.6723162519459</v>
+        <v>717.7844008099096</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R35" t="n">
-        <v>124.1168587788756</v>
+        <v>98.00477422091129</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K36" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L36" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M36" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N36" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O36" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P36" t="n">
-        <v>317.8401551245637</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.3329768085931</v>
+        <v>92.33297680859309</v>
       </c>
       <c r="K37" t="n">
         <v>252.4083374218663</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>189.1483890142564</v>
+        <v>189.1483890142565</v>
       </c>
       <c r="K38" t="n">
-        <v>658.8808445731649</v>
+        <v>658.8808445731651</v>
       </c>
       <c r="L38" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M38" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N38" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O38" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P38" t="n">
-        <v>717.7844008099094</v>
+        <v>717.7844008099096</v>
       </c>
       <c r="Q38" t="n">
-        <v>345.5799525218467</v>
+        <v>345.5799525218449</v>
       </c>
       <c r="R38" t="n">
-        <v>58.40043890589311</v>
+        <v>58.40043890589317</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K39" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L39" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M39" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N39" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O39" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P39" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R39" t="n">
-        <v>6.176755984801955</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33297680859307</v>
+        <v>92.33297680859309</v>
       </c>
       <c r="K40" t="n">
-        <v>252.4083374218662</v>
+        <v>252.4083374218663</v>
       </c>
       <c r="L40" t="n">
         <v>365.836671793805</v>
       </c>
       <c r="M40" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N40" t="n">
         <v>390.898534491864</v>
@@ -37716,7 +37716,7 @@
         <v>348.4958856024513</v>
       </c>
       <c r="P40" t="n">
-        <v>281.2764949082015</v>
+        <v>281.2764949082013</v>
       </c>
       <c r="Q40" t="n">
         <v>125.0359010232499</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>332.1329196283676</v>
+        <v>358.2450041863303</v>
       </c>
       <c r="K41" t="n">
-        <v>334.7354320020002</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L41" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M41" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N41" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O41" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P41" t="n">
-        <v>717.7844008099094</v>
+        <v>691.6723162519454</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R41" t="n">
         <v>124.1168587788756</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K42" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L42" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M42" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N42" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O42" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P42" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q42" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R42" t="n">
-        <v>6.176755984801955</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33297680859306</v>
+        <v>92.33297680859309</v>
       </c>
       <c r="K43" t="n">
-        <v>252.4083374218663</v>
+        <v>252.4083374218661</v>
       </c>
       <c r="L43" t="n">
         <v>365.836671793805</v>
       </c>
       <c r="M43" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N43" t="n">
         <v>390.898534491864</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.2450041863302</v>
+        <v>358.2450041863303</v>
       </c>
       <c r="K44" t="n">
-        <v>374.33976731702</v>
+        <v>334.7354320020003</v>
       </c>
       <c r="L44" t="n">
-        <v>452.5434096573246</v>
+        <v>452.5434096573248</v>
       </c>
       <c r="M44" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N44" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O44" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P44" t="n">
-        <v>717.7844008099094</v>
+        <v>691.6723162519454</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R44" t="n">
-        <v>58.40043890589311</v>
+        <v>124.1168587788756</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>99.82431446632063</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K45" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L45" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M45" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N45" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O45" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P45" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.9152979418689</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.33297680859306</v>
+        <v>92.33297680859309</v>
       </c>
       <c r="K46" t="n">
-        <v>252.4083374218662</v>
+        <v>252.4083374218663</v>
       </c>
       <c r="L46" t="n">
         <v>365.836671793805</v>
